--- a/StaelTimeline.xlsx
+++ b/StaelTimeline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel David\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel David\Documents\GitHub\RstudioPV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B395C1-33FA-4DB6-BC54-125880436DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AFFF0B-B80F-4BF3-92D9-2EEEFF44EA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Stael maries Erik Magnus Stael von Holstein</t>
-  </si>
-  <si>
-    <t>(Got married on the Chapel of the Swedish Embassy in Paris)</t>
   </si>
   <si>
     <t xml:space="preserve">Paris </t>
@@ -107,9 +104,6 @@
     <t>Stael flees from Paris to Switzerland</t>
   </si>
   <si>
-    <t>Stael travels in England</t>
-  </si>
-  <si>
     <t>With her then-lover, the Comte de Narbonne, Stael spends four months in England, where she becomes pregnant</t>
   </si>
   <si>
@@ -126,9 +120,6 @@
   </si>
   <si>
     <t>Stael's husband Erik dies; Napoleon elected to first consul for life; Stael publishes "On Literature"; around this time, Stael begins to learn German</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poligny, FRance </t>
   </si>
   <si>
     <t>Napoleon exiles Stael on October 13</t>
@@ -229,6 +220,56 @@
   </si>
   <si>
     <t>Dead of Stael's husband</t>
+  </si>
+  <si>
+    <t>Coordenadas</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stael start to write </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Corinne</t>
+    </r>
+  </si>
+  <si>
+    <t>Got married on the Chapel of the Swedish Embassy in Paris</t>
+  </si>
+  <si>
+    <t>Stael's father is exiled (reinstated on July 16)</t>
+  </si>
+  <si>
+    <t>Stael's father resigns</t>
+  </si>
+  <si>
+    <t>Stael moves to Switzerland</t>
+  </si>
+  <si>
+    <t>Stael travels to England</t>
+  </si>
+  <si>
+    <t>Stael meets Napoleon for first time</t>
+  </si>
+  <si>
+    <t>Stael re-enters France</t>
+  </si>
+  <si>
+    <t>Stael meets Wilberforce</t>
+  </si>
+  <si>
+    <t>Stael returns to Paris (Louis VXIII is crowned)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stael dies at the age of 51 </t>
+  </si>
+  <si>
+    <t>Stael is confined to her home</t>
   </si>
 </sst>
 </file>
@@ -616,14 +657,16 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="69.5703125" customWidth="1"/>
-    <col min="3" max="3" width="72.28515625" customWidth="1"/>
+    <col min="3" max="3" width="87.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -639,6 +682,9 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
@@ -663,10 +709,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -674,10 +720,13 @@
         <v>1788</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -685,10 +734,13 @@
         <v>1788</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -696,10 +748,13 @@
         <v>1789</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -707,10 +762,13 @@
         <v>1790</v>
       </c>
       <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
         <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -718,10 +776,13 @@
         <v>1792</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -729,13 +790,13 @@
         <v>1793</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -743,13 +804,13 @@
         <v>1793</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -757,10 +818,13 @@
         <v>1795</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -768,10 +832,13 @@
         <v>1797</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -779,13 +846,13 @@
         <v>1802</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -793,13 +860,13 @@
         <v>1803</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -807,10 +874,13 @@
         <v>1804</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -818,10 +888,13 @@
         <v>1805</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -829,10 +902,13 @@
         <v>1807</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -840,10 +916,13 @@
         <v>1810</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -851,10 +930,13 @@
         <v>1811</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -862,13 +944,13 @@
         <v>1812</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -876,10 +958,13 @@
         <v>1814</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -887,7 +972,10 @@
         <v>1814</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
@@ -898,10 +986,13 @@
         <v>1815</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -909,10 +1000,13 @@
         <v>1816</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -920,7 +1014,10 @@
         <v>1816</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -928,7 +1025,10 @@
         <v>1817</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -936,10 +1036,13 @@
         <v>1817</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/StaelTimeline.xlsx
+++ b/StaelTimeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel David\Documents\GitHub\RstudioPV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AFFF0B-B80F-4BF3-92D9-2EEEFF44EA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E5AD17-C26B-498D-862C-E83AB6A9A0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/StaelTimeline.xlsx
+++ b/StaelTimeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel David\Documents\GitHub\RstudioPV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E5AD17-C26B-498D-862C-E83AB6A9A0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6772924B-3661-4A9D-B909-AE77840E9D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,155 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="12">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="82"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="88"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="108"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="113"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="194"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="263"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="266"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="273"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="279"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="347"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="12">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+    <bk>
+      <rc t="2" v="4"/>
+    </bk>
+    <bk>
+      <rc t="2" v="5"/>
+    </bk>
+    <bk>
+      <rc t="2" v="6"/>
+    </bk>
+    <bk>
+      <rc t="2" v="7"/>
+    </bk>
+    <bk>
+      <rc t="2" v="8"/>
+    </bk>
+    <bk>
+      <rc t="2" v="9"/>
+    </bk>
+    <bk>
+      <rc t="2" v="10"/>
+    </bk>
+    <bk>
+      <rc t="2" v="11"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -56,13 +203,7 @@
     <t>Born Anne Louise Germaine Necker to French finance minister Jacques Necker and Suzanne Churchod</t>
   </si>
   <si>
-    <t>Paris</t>
-  </si>
-  <si>
     <t>Stael maries Erik Magnus Stael von Holstein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paris </t>
   </si>
   <si>
     <r>
@@ -84,9 +225,6 @@
       </rPr>
       <t>Letters on the works and character of JJ Rousseau</t>
     </r>
-  </si>
-  <si>
-    <t>London</t>
   </si>
   <si>
     <t>July 11 Stael's father is exiled, then reinstated on July 16 in response to outcry</t>
@@ -222,9 +360,6 @@
     <t>Dead of Stael's husband</t>
   </si>
   <si>
-    <t>Coordenadas</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Stael start to write </t>
     </r>
@@ -271,12 +406,21 @@
   <si>
     <t>Stael is confined to her home</t>
   </si>
+  <si>
+    <t>Info geografica</t>
+  </si>
+  <si>
+    <t>Latitud</t>
+  </si>
+  <si>
+    <t>Longitud</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,12 +452,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFE2EEFF"/>
-      <name val="Google Sans"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -335,11 +473,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,6 +492,5734 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity2">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentity2core">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataRetrievedTime">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%EntityDomainIdString">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%InfoToolTipLabelNames">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%InfoToolTipLabelValues">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%InfoToolTipLabelValuesType">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderString">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%ClassificationId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_webimage">
+      <keyFlags>
+        <key name="WebImageIdentifier">
+          <flag name="ShowInCardView" value="0"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdRichValueWebImage.xml><?xml version="1.0" encoding="utf-8"?>
+<webImagesSrd xmlns="http://schemas.microsoft.com/office/spreadsheetml/2020/richdatawebimage" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <webImageSrd>
+    <address r:id="rId1"/>
+    <moreImagesAddress r:id="rId2"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId3"/>
+    <moreImagesAddress r:id="rId4"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId5"/>
+    <moreImagesAddress r:id="rId6"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId7"/>
+    <moreImagesAddress r:id="rId8"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId9"/>
+    <moreImagesAddress r:id="rId10"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId11"/>
+    <moreImagesAddress r:id="rId12"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId13"/>
+    <moreImagesAddress r:id="rId14"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId15"/>
+    <moreImagesAddress r:id="rId16"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId17"/>
+    <moreImagesAddress r:id="rId18"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId19"/>
+    <moreImagesAddress r:id="rId20"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId21"/>
+    <moreImagesAddress r:id="rId22"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId23"/>
+    <moreImagesAddress r:id="rId24"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId25"/>
+    <moreImagesAddress r:id="rId26"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId27"/>
+    <moreImagesAddress r:id="rId28"/>
+  </webImageSrd>
+</webImagesSrd>
+</file>
+
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="30">
+  <a r="1">
+    <v t="r">6</v>
+  </a>
+  <a r="2">
+    <v t="r">30</v>
+    <v t="r">31</v>
+  </a>
+  <a r="1">
+    <v t="s">French language</v>
+  </a>
+  <a r="25">
+    <v t="r">50</v>
+    <v t="r">51</v>
+    <v t="r">52</v>
+    <v t="r">53</v>
+    <v t="r">54</v>
+    <v t="r">55</v>
+    <v t="r">56</v>
+    <v t="r">57</v>
+    <v t="r">58</v>
+    <v t="r">59</v>
+    <v t="r">60</v>
+    <v t="r">61</v>
+    <v t="r">62</v>
+    <v t="r">63</v>
+    <v t="r">64</v>
+    <v t="r">65</v>
+    <v t="r">66</v>
+    <v t="r">67</v>
+    <v t="r">68</v>
+    <v t="r">69</v>
+    <v t="r">70</v>
+    <v t="r">71</v>
+    <v t="r">72</v>
+    <v t="r">73</v>
+    <v t="r">74</v>
+  </a>
+  <a r="1">
+    <v t="s">Central European Time</v>
+  </a>
+  <a r="1">
+    <v t="r">89</v>
+  </a>
+  <a r="1">
+    <v t="s">Greenwich Mean Time</v>
+  </a>
+  <a r="1">
+    <v t="r">100</v>
+  </a>
+  <a r="1">
+    <v t="s">English language</v>
+  </a>
+  <a r="2">
+    <v t="s">Greenwich Mean Time</v>
+    <v t="s">Western European Time</v>
+  </a>
+  <a r="1">
+    <v t="r">114</v>
+  </a>
+  <a r="7">
+    <v t="r">139</v>
+    <v t="r">140</v>
+    <v t="r">141</v>
+    <v t="r">142</v>
+    <v t="r">143</v>
+    <v t="r">144</v>
+    <v t="r">145</v>
+  </a>
+  <a r="4">
+    <v t="s">Italian language</v>
+    <v t="s">Romansh language</v>
+    <v t="s">German language</v>
+    <v t="s">French language</v>
+  </a>
+  <a r="25">
+    <v t="r">163</v>
+    <v t="r">164</v>
+    <v t="r">165</v>
+    <v t="r">166</v>
+    <v t="r">167</v>
+    <v t="r">168</v>
+    <v t="r">169</v>
+    <v t="r">170</v>
+    <v t="r">171</v>
+    <v t="r">172</v>
+    <v t="r">173</v>
+    <v t="r">174</v>
+    <v t="r">175</v>
+    <v t="r">176</v>
+    <v t="r">177</v>
+    <v t="r">178</v>
+    <v t="r">179</v>
+    <v t="r">180</v>
+    <v t="r">181</v>
+    <v t="r">182</v>
+    <v t="r">183</v>
+    <v t="r">184</v>
+    <v t="r">185</v>
+    <v t="r">186</v>
+    <v t="r">187</v>
+  </a>
+  <a r="1">
+    <v t="r">200</v>
+  </a>
+  <a r="1">
+    <v t="s">German language</v>
+  </a>
+  <a r="2">
+    <v t="r">224</v>
+    <v t="r">225</v>
+  </a>
+  <a r="15">
+    <v t="r">243</v>
+    <v t="r">244</v>
+    <v t="r">194</v>
+    <v t="r">245</v>
+    <v t="r">246</v>
+    <v t="r">247</v>
+    <v t="r">248</v>
+    <v t="r">249</v>
+    <v t="r">250</v>
+    <v t="r">251</v>
+    <v t="r">252</v>
+    <v t="r">253</v>
+    <v t="r">254</v>
+    <v t="r">255</v>
+    <v t="r">256</v>
+  </a>
+  <a r="1">
+    <v t="r">267</v>
+  </a>
+  <a r="1">
+    <v t="r">280</v>
+  </a>
+  <a r="2">
+    <v t="r">304</v>
+    <v t="r">305</v>
+  </a>
+  <a r="1">
+    <v t="s">Italian language</v>
+  </a>
+  <a r="20">
+    <v t="r">322</v>
+    <v t="r">323</v>
+    <v t="r">324</v>
+    <v t="r">325</v>
+    <v t="r">326</v>
+    <v t="r">327</v>
+    <v t="r">274</v>
+    <v t="r">328</v>
+    <v t="r">329</v>
+    <v t="r">330</v>
+    <v t="r">331</v>
+    <v t="r">332</v>
+    <v t="r">333</v>
+    <v t="r">334</v>
+    <v t="r">335</v>
+    <v t="r">336</v>
+    <v t="r">337</v>
+    <v t="r">338</v>
+    <v t="r">339</v>
+    <v t="r">340</v>
+  </a>
+  <a r="1">
+    <v t="r">351</v>
+  </a>
+  <a r="1">
+    <v t="s">Russian language</v>
+  </a>
+  <a r="1">
+    <v t="s">Moscow Time</v>
+  </a>
+  <a r="2">
+    <v t="r">376</v>
+    <v t="r">377</v>
+  </a>
+  <a r="83">
+    <v t="r">394</v>
+    <v t="r">395</v>
+    <v t="r">396</v>
+    <v t="r">397</v>
+    <v t="r">398</v>
+    <v t="r">399</v>
+    <v t="r">400</v>
+    <v t="r">401</v>
+    <v t="r">402</v>
+    <v t="r">403</v>
+    <v t="r">404</v>
+    <v t="r">405</v>
+    <v t="r">406</v>
+    <v t="r">407</v>
+    <v t="r">408</v>
+    <v t="r">409</v>
+    <v t="r">410</v>
+    <v t="r">411</v>
+    <v t="r">412</v>
+    <v t="r">413</v>
+    <v t="r">414</v>
+    <v t="r">415</v>
+    <v t="r">416</v>
+    <v t="r">417</v>
+    <v t="r">418</v>
+    <v t="r">419</v>
+    <v t="r">420</v>
+    <v t="r">421</v>
+    <v t="r">422</v>
+    <v t="r">423</v>
+    <v t="r">424</v>
+    <v t="r">425</v>
+    <v t="r">426</v>
+    <v t="r">427</v>
+    <v t="r">428</v>
+    <v t="r">429</v>
+    <v t="r">430</v>
+    <v t="r">431</v>
+    <v t="r">432</v>
+    <v t="r">433</v>
+    <v t="r">434</v>
+    <v t="r">435</v>
+    <v t="r">436</v>
+    <v t="r">437</v>
+    <v t="r">438</v>
+    <v t="r">439</v>
+    <v t="r">440</v>
+    <v t="r">441</v>
+    <v t="r">442</v>
+    <v t="r">443</v>
+    <v t="r">444</v>
+    <v t="r">445</v>
+    <v t="r">446</v>
+    <v t="r">447</v>
+    <v t="r">448</v>
+    <v t="r">449</v>
+    <v t="r">450</v>
+    <v t="r">451</v>
+    <v t="r">452</v>
+    <v t="r">453</v>
+    <v t="r">454</v>
+    <v t="r">455</v>
+    <v t="r">456</v>
+    <v t="r">457</v>
+    <v t="r">458</v>
+    <v t="r">459</v>
+    <v t="r">460</v>
+    <v t="r">461</v>
+    <v t="r">462</v>
+    <v t="r">463</v>
+    <v t="r">464</v>
+    <v t="r">465</v>
+    <v t="r">466</v>
+    <v t="r">467</v>
+    <v t="r">468</v>
+    <v t="r">347</v>
+    <v t="r">469</v>
+    <v t="r">470</v>
+    <v t="r">471</v>
+    <v t="r">472</v>
+    <v t="r">473</v>
+    <v t="r">474</v>
+    <v t="r">475</v>
+  </a>
+  <a r="13">
+    <v t="s">Moscow Time</v>
+    <v t="s">Samara Time</v>
+    <v t="s">Yekaterinburg Time</v>
+    <v t="s">Omsk Time</v>
+    <v t="s">Krasnoyarsk Time</v>
+    <v t="s">Irkutsk Time</v>
+    <v t="s">Yakutsk Time</v>
+    <v t="s">Kamchatka Time</v>
+    <v t="s">Eastern European Time</v>
+    <v t="s">Vladivostok Time</v>
+    <v t="s">Srednekolymsk Time</v>
+    <v t="s">Magadan Time</v>
+    <v t="s">Kaliningrad Time</v>
+  </a>
+  <a r="1">
+    <v t="r">485</v>
+  </a>
+</arrayData>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="490">
+  <rv s="0">
+    <v>536870912</v>
+    <v>Paris</v>
+    <v>85584d24-2116-5b98-89f9-5714db931ac6</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Metropolitan France</v>
+    <v>a50a7b3c-58a6-b52d-98d1-10a1a763403b</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="1">
+    <fb>105.4</fb>
+    <v>8</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>France</v>
+    <v>c7bfe2de-4f82-e23c-ae42-8544b5b5c0ea</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="2">
+    <v>0</v>
+    <v>6</v>
+    <v>0</v>
+    <v>7</v>
+    <v>0</v>
+    <v>Image of Paris</v>
+  </rv>
+  <rv s="1">
+    <fb>48.856666666666698</fb>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Anne Hidalgo (Mayor)</v>
+    <v>f26212ed-b25d-e4f8-ecf0-85777b9d38cf</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="3">
+    <v>0</v>
+  </rv>
+  <rv s="4">
+    <v>https://www.bing.com/search?q=paris+france&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <fb>2.35222222222222</fb>
+    <v>9</v>
+  </rv>
+  <rv s="1">
+    <fb>2145906</fb>
+    <v>8</v>
+  </rv>
+  <rv s="5">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>85584d24-2116-5b98-89f9-5714db931ac6</v>
+    <v>536870912</v>
+    <v>1</v>
+    <v>1</v>
+    <v>2</v>
+    <v>Paris</v>
+    <v>4</v>
+    <v>5</v>
+    <v>Map</v>
+    <v>6</v>
+    <v>7</v>
+    <v>1</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Paris is the capital and most populous city of France. With an official estimated population of 2,102,650 residents as of 1 January 2023 in an area of more than 105 km², Paris is the fourth-most populated city in the European Union and the 30th ...</v>
+    <v>4</v>
+    <v>5</v>
+    <v>7</v>
+    <v>8</v>
+    <v>9</v>
+    <v>Paris</v>
+    <v>10</v>
+    <v>Paris</v>
+    <v>mdp/vdpid/7012570570818584578</v>
+  </rv>
+  <rv s="1">
+    <fb>0.524475441661716</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>643801</fb>
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <fb>307000</fb>
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <fb>11.3</fb>
+    <v>30</v>
+  </rv>
+  <rv s="1">
+    <fb>33</fb>
+    <v>31</v>
+  </rv>
+  <rv s="1">
+    <fb>303275.56800000003</fb>
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <fb>110.04856675289</fb>
+    <v>32</v>
+  </rv>
+  <rv s="1">
+    <fb>1.1082549228829199E-2</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>6939.5214736692897</fb>
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <fb>1.88</fb>
+    <v>30</v>
+  </rv>
+  <rv s="1">
+    <fb>0.31233278442262596</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>46.487970872236403</fb>
+    <v>33</v>
+  </rv>
+  <rv s="1">
+    <fb>1.39</fb>
+    <v>34</v>
+  </rv>
+  <rv s="1">
+    <fb>2715518274227.4502</fb>
+    <v>35</v>
+  </rv>
+  <rv s="1">
+    <fb>1.0251076000000001</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>0.65629000000000004</fb>
+    <v>29</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+    <v>6</v>
+    <v>12</v>
+    <v>7</v>
+    <v>0</v>
+    <v>Image of France</v>
+  </rv>
+  <rv s="1">
+    <fb>3.4</fb>
+    <v>33</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Emmanuel Macron (President)</v>
+    <v>35be5a56-7a78-6352-b158-60da8f84c858</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Gabriel Attal (Prime minister)</v>
+    <v>5f0b8fd1-c77a-cffd-ddee-9a5bbf7b40cf</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="3">
+    <v>1</v>
+  </rv>
+  <rv s="4">
+    <v>https://www.bing.com/search?q=france&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <fb>82.526829268292701</fb>
+    <v>33</v>
+  </rv>
+  <rv s="1">
+    <fb>2365950236659.3599</fb>
+    <v>35</v>
+  </rv>
+  <rv s="1">
+    <fb>8</fb>
+    <v>33</v>
+  </rv>
+  <rv s="1">
+    <fb>11.16</fb>
+    <v>34</v>
+  </rv>
+  <rv s="3">
+    <v>2</v>
+  </rv>
+  <rv s="1">
+    <fb>6.7968269799999995E-2</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>3.2671999999999999</fb>
+    <v>30</v>
+  </rv>
+  <rv s="1">
+    <fb>67935660</fb>
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <fb>0.21899999999999997</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>0.25800000000000001</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>0.4</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>3.2000000000000001E-2</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>8.1000000000000003E-2</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>0.13</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>0.16899999999999998</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>0.55125999450683605</fb>
+    <v>29</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Brittany</v>
+    <v>809fb739-638d-2499-95bd-c8e5b10153ee</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Centre-Val de Loire</v>
+    <v>6aafd8c4-aba3-0388-62a3-d302e77f40c4</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Corsica</v>
+    <v>7dae6ff4-03ba-2162-da4b-d4cf544ad43f</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Île-de-France</v>
+    <v>ba200862-fc37-6d22-3434-c6e709faa507</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Pays de la Loire</v>
+    <v>a6129a88-a4cd-2b75-1a35-f5d0639f17ae</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Provence-Alpes-Côte d'Azur</v>
+    <v>66cd1ae3-f633-45f9-93bd-73ca67bffb25</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Guadeloupe</v>
+    <v>56b80aaa-d840-1a73-13ba-70eb9b61a642</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>French Guiana</v>
+    <v>328feb88-20d1-8674-1574-3ce8cc0bc9e9</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Martinique</v>
+    <v>f245adef-ee09-9352-e265-2a287e5eadbe</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Mayotte</v>
+    <v>545cc8bc-c211-076d-ee26-d2ff955eb394</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Réunion</v>
+    <v>7d1fa0b0-e3d7-d903-d64d-489c03fd0a75</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>French Polynesia</v>
+    <v>340e15d5-6b74-8497-bbfa-4c1f323f5483</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>French Southern and Antarctic Lands</v>
+    <v>b9d52319-44ee-bf16-d95f-72397f26ce4a</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>New Caledonia</v>
+    <v>25b2aeab-b390-d01e-1f7f-90be767bd899</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Saint Barthélemy</v>
+    <v>5c5081a9-306e-4f05-73a2-32b95a4b8600</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Collectivity of Saint Martin</v>
+    <v>281a8fb2-1b63-4320-5d31-8f0fb46c4f1a</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Saint Pierre and Miquelon</v>
+    <v>aa096cf4-a54e-cd44-7204-c28310ca40f4</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Wallis and Futuna</v>
+    <v>db8aa235-58e4-9e3d-8799-6839f3d35025</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Grand Est</v>
+    <v>e2f60e84-1701-6d84-e960-ba87138e3631</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>New Aquitaine</v>
+    <v>7955f423-af31-d2e0-f045-b14668178865</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Auvergne-Rhône-Alpes</v>
+    <v>b53940d0-b739-faf5-78d1-93f189f878c9</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Bourgogne-Franche-Comté</v>
+    <v>4bc8dff1-8d72-5341-f405-63c7be8c6672</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Occitania</v>
+    <v>5105d172-dc70-689f-09ab-4163a747508a</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Hauts-de-France</v>
+    <v>4eb2d0b0-8845-48d0-9343-9ba3e7fe81a0</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Clipperton Island</v>
+    <v>15fb63fc-f501-7360-7d44-f26d1501209e</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="3">
+    <v>3</v>
+  </rv>
+  <rv s="1">
+    <fb>0.24229980509910898</fb>
+    <v>29</v>
+  </rv>
+  <rv s="3">
+    <v>4</v>
+  </rv>
+  <rv s="1">
+    <fb>0.60699999999999998</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>8.4270000457763714E-2</fb>
+    <v>36</v>
+  </rv>
+  <rv s="1">
+    <fb>54123364</fb>
+    <v>8</v>
+  </rv>
+  <rv s="6">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>c7bfe2de-4f82-e23c-ae42-8544b5b5c0ea</v>
+    <v>536870912</v>
+    <v>1</v>
+    <v>26</v>
+    <v>27</v>
+    <v>France</v>
+    <v>4</v>
+    <v>5</v>
+    <v>Map</v>
+    <v>6</v>
+    <v>28</v>
+    <v>FR</v>
+    <v>12</v>
+    <v>13</v>
+    <v>14</v>
+    <v>15</v>
+    <v>16</v>
+    <v>0</v>
+    <v>17</v>
+    <v>18</v>
+    <v>19</v>
+    <v>EUR</v>
+    <v>France, officially the French Republic, is a country located primarily in Western Europe. It also includes overseas regions and territories in the Americas and the Atlantic, Pacific and Indian oceans, giving it one of the largest discontiguous ...</v>
+    <v>20</v>
+    <v>21</v>
+    <v>22</v>
+    <v>23</v>
+    <v>24</v>
+    <v>25</v>
+    <v>26</v>
+    <v>27</v>
+    <v>28</v>
+    <v>29</v>
+    <v>0</v>
+    <v>32</v>
+    <v>33</v>
+    <v>34</v>
+    <v>35</v>
+    <v>36</v>
+    <v>37</v>
+    <v>France</v>
+    <v>La Marseillaise</v>
+    <v>38</v>
+    <v>République française</v>
+    <v>39</v>
+    <v>40</v>
+    <v>41</v>
+    <v>42</v>
+    <v>43</v>
+    <v>44</v>
+    <v>45</v>
+    <v>46</v>
+    <v>47</v>
+    <v>48</v>
+    <v>49</v>
+    <v>75</v>
+    <v>76</v>
+    <v>77</v>
+    <v>78</v>
+    <v>79</v>
+    <v>France</v>
+    <v>80</v>
+    <v>mdp/vdpid/84</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>London</v>
+    <v>8e0ba7b6-4225-fa8a-6369-1b5294e602a5</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>England</v>
+    <v>280d39e8-7217-6863-6980-a8c20c211c89</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Greater London</v>
+    <v>2ba8a441-178c-f2c0-26cb-a4b260b8c806</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="1">
+    <fb>1572</fb>
+    <v>8</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>United Kingdom</v>
+    <v>b1a5155a-6bb2-4646-8f7c-3e6b3a53c831</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="2">
+    <v>2</v>
+    <v>6</v>
+    <v>37</v>
+    <v>7</v>
+    <v>0</v>
+    <v>Image of London</v>
+  </rv>
+  <rv s="1">
+    <fb>51.507222222221998</fb>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Sadiq Khan (Mayor)</v>
+    <v>d7862dc2-4c03-1dc8-3412-7fe03041fdcb</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="3">
+    <v>5</v>
+  </rv>
+  <rv s="4">
+    <v>https://www.bing.com/search?q=london+england&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <fb>-0.1275</fb>
+    <v>9</v>
+  </rv>
+  <rv s="1">
+    <fb>8799728</fb>
+    <v>8</v>
+  </rv>
+  <rv s="3">
+    <v>6</v>
+  </rv>
+  <rv s="7">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>8e0ba7b6-4225-fa8a-6369-1b5294e602a5</v>
+    <v>536870912</v>
+    <v>1</v>
+    <v>38</v>
+    <v>39</v>
+    <v>London</v>
+    <v>4</v>
+    <v>5</v>
+    <v>Map</v>
+    <v>6</v>
+    <v>40</v>
+    <v>83</v>
+    <v>84</v>
+    <v>85</v>
+    <v>86</v>
+    <v>London is the capital and largest city of England, and the United Kingdom, with a population of around 8.8 million, and the largest city in Western Europe by metropolitan area, with a population of 14,800,000. It stands on the River Thames in ...</v>
+    <v>87</v>
+    <v>88</v>
+    <v>90</v>
+    <v>91</v>
+    <v>92</v>
+    <v>London</v>
+    <v>93</v>
+    <v>94</v>
+    <v>London</v>
+    <v>mdp/vdpid/5471798185326280713</v>
+  </rv>
+  <rv s="1">
+    <fb>130278</fb>
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <fb>22063368</fb>
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <fb>22976066</fb>
+    <v>8</v>
+  </rv>
+  <rv s="2">
+    <v>3</v>
+    <v>6</v>
+    <v>41</v>
+    <v>7</v>
+    <v>0</v>
+    <v>Image of England</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Charles III (Monarch)</v>
+    <v>afc6f6a9-5b55-9178-3e6f-2c8b6d16ee9c</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="3">
+    <v>7</v>
+  </rv>
+  <rv s="4">
+    <v>https://www.bing.com/search?q=england&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <fb>2.4</fb>
+    <v>30</v>
+  </rv>
+  <rv s="1">
+    <fb>57106398</fb>
+    <v>8</v>
+  </rv>
+  <rv s="3">
+    <v>9</v>
+  </rv>
+  <rv s="8">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>280d39e8-7217-6863-6980-a8c20c211c89</v>
+    <v>536870912</v>
+    <v>1</v>
+    <v>44</v>
+    <v>45</v>
+    <v>England</v>
+    <v>4</v>
+    <v>5</v>
+    <v>Map</v>
+    <v>6</v>
+    <v>46</v>
+    <v>GB-ENG</v>
+    <v>96</v>
+    <v>82</v>
+    <v>86</v>
+    <v>England is a country that is part of the United Kingdom. It shares land borders with Wales to its west and Scotland to its north, while Ireland is located across the Irish Sea to its west and northwest, and the Celtic Sea lies to its southwest. ...</v>
+    <v>97</v>
+    <v>98</v>
+    <v>99</v>
+    <v>82</v>
+    <v>101</v>
+    <v>102</v>
+    <v>England</v>
+    <v>103</v>
+    <v>104</v>
+    <v>105</v>
+    <v>106</v>
+    <v>England</v>
+    <v>mdp/vdpid/10270</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Bern</v>
+    <v>15dda629-8f09-9c82-b064-7a7e8e84c804</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Bern-Mittelland administrative district</v>
+    <v>0e93e92f-5282-8919-fb62-1d7f8c0b15f5</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="1">
+    <fb>51.62</fb>
+    <v>8</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Switzerland</v>
+    <v>c10c98b9-afcd-84bf-c5c8-4220fc76a2e3</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="2">
+    <v>4</v>
+    <v>6</v>
+    <v>47</v>
+    <v>7</v>
+    <v>0</v>
+    <v>Image of Bern</v>
+  </rv>
+  <rv s="1">
+    <fb>46.947980000000001</fb>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Alec von Graffenried (Mayor)</v>
+    <v>6f1a698e-0edc-d9a0-a25b-dbc28adb402d</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="3">
+    <v>10</v>
+  </rv>
+  <rv s="4">
+    <v>https://www.bing.com/search?q=bern&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <fb>7.4474299999999998</fb>
+    <v>9</v>
+  </rv>
+  <rv s="1">
+    <fb>134506</fb>
+    <v>8</v>
+  </rv>
+  <rv s="9">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>15dda629-8f09-9c82-b064-7a7e8e84c804</v>
+    <v>536870912</v>
+    <v>1</v>
+    <v>48</v>
+    <v>49</v>
+    <v>Bern</v>
+    <v>4</v>
+    <v>5</v>
+    <v>Map</v>
+    <v>6</v>
+    <v>50</v>
+    <v>109</v>
+    <v>110</v>
+    <v>111</v>
+    <v>Bern, or Berne, is the de facto capital of Switzerland, referred to as the "federal city". With a population of about 133,000, Bern is the fifth-most populous city in Switzerland, behind Zürich, Geneva, Basel and Lausanne. The Bern ...</v>
+    <v>112</v>
+    <v>113</v>
+    <v>115</v>
+    <v>116</v>
+    <v>117</v>
+    <v>Bern</v>
+    <v>118</v>
+    <v>Bern</v>
+    <v>mdp/vdpid/7015704281399427073</v>
+  </rv>
+  <rv s="1">
+    <fb>0.38363446027908404</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>41285</fb>
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <fb>21000</fb>
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <fb>10</fb>
+    <v>30</v>
+  </rv>
+  <rv s="1">
+    <fb>41</fb>
+    <v>31</v>
+  </rv>
+  <rv s="1">
+    <fb>34477.133999999998</fb>
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <fb>99.546913020227805</fb>
+    <v>32</v>
+  </rv>
+  <rv s="1">
+    <fb>3.6291600452038396E-3</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>7520.1660249450197</fb>
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <fb>1.52</fb>
+    <v>30</v>
+  </rv>
+  <rv s="1">
+    <fb>0.318301452005265</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>50.168225480798597</fb>
+    <v>33</v>
+  </rv>
+  <rv s="1">
+    <fb>1.45</fb>
+    <v>34</v>
+  </rv>
+  <rv s="1">
+    <fb>703082435360.11694</fb>
+    <v>35</v>
+  </rv>
+  <rv s="1">
+    <fb>1.0519068</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>0.59562990000000005</fb>
+    <v>29</v>
+  </rv>
+  <rv s="2">
+    <v>5</v>
+    <v>6</v>
+    <v>52</v>
+    <v>7</v>
+    <v>0</v>
+    <v>Image of Switzerland</v>
+  </rv>
+  <rv s="1">
+    <fb>3.7</fb>
+    <v>33</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Zürich</v>
+    <v>db19e556-240e-d241-ad76-1bf238372a7f</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Viola Amherd (Federal Council)</v>
+    <v>f6fb052a-7df3-5ad8-30ba-ca10ed100863</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Karin Keller-Sutter (Federal Council)</v>
+    <v>00e54934-2464-4876-b9e0-0f45711e610b</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Guy Parmelin (Federal Council)</v>
+    <v>1698eb42-72aa-6c9b-26ff-ed678962e2b0</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Ignazio Cassis (Federal Council)</v>
+    <v>dacdb4e9-4344-ec7d-0faa-307f1e081e21</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Albert Rösti (Federal Council)</v>
+    <v>c24073af-1953-d773-7d55-965da760c77f</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Élisabeth Baume-Schneider (Federal Council)</v>
+    <v>771e919e-ed9d-33ac-50e8-cc2baac2edc7</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Beat Jans (Federal Council)</v>
+    <v>976a6bb0-3cfe-d924-7ec7-3d5a162210e1</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="3">
+    <v>11</v>
+  </rv>
+  <rv s="4">
+    <v>https://www.bing.com/search?q=switzerland&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <fb>83.551219512195104</fb>
+    <v>33</v>
+  </rv>
+  <rv s="1">
+    <fb>1834453260000</fb>
+    <v>35</v>
+  </rv>
+  <rv s="1">
+    <fb>5</fb>
+    <v>33</v>
+  </rv>
+  <rv s="3">
+    <v>12</v>
+  </rv>
+  <rv s="1">
+    <fb>0.28345719829999999</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>4.2957000000000001</fb>
+    <v>30</v>
+  </rv>
+  <rv s="1">
+    <fb>8769741</fb>
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <fb>0.22399999999999998</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>0.255</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>0.40600000000000003</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>3.1E-2</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>7.6999999999999999E-2</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>0.125</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>0.16699999999999998</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>0.68252998352050798</fb>
+    <v>29</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Appenzell Ausserrhoden</v>
+    <v>4663e3db-15ae-7203-e966-72677429b1a3</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Appenzell Innerrhoden</v>
+    <v>438c2059-f008-12cd-b398-bdec44fee1ce</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Aargau</v>
+    <v>7ffb687a-43b8-ee3e-7244-a40e99f97077</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Basel-Landschaft</v>
+    <v>42301343-12f1-5ec4-5c22-74dbfbf795b2</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Basel-Stadt</v>
+    <v>c6e79b8d-baaa-199e-f037-0c6cb850776e</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Canton of Bern</v>
+    <v>2a03e077-5092-0e03-223b-4aa6b24c7525</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Canton of Fribourg</v>
+    <v>5539f36c-455a-28cc-02c2-27ef6596fe56</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Canton of Geneva</v>
+    <v>fb357cde-21c3-0878-8ec6-1e42a1a9db63</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Canton of Glarus</v>
+    <v>6cf7d446-0b69-661d-2aa7-1719c8a7d3ca</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Grisons</v>
+    <v>897c7b22-1822-9d6c-0404-564393a9433c</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Canton of Jura</v>
+    <v>7d474a26-e388-0d0f-3b50-6ba37562a6b8</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Canton of Lucerne</v>
+    <v>b4674fd7-3899-7adb-4ffb-315b0fe97c2d</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Nidwalden</v>
+    <v>58fe5a62-ac5e-752f-a9cf-e9cc16f0d3bb</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Canton of Obwalden</v>
+    <v>ed77cee0-5e66-ea48-95ac-b4a7f4179920</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Canton of St. Gallen</v>
+    <v>2c40a905-a53f-03e5-6ae8-ff0f2d23e1a1</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Canton of Schaffhausen</v>
+    <v>93019ae6-ba39-a502-0e6f-d0ea1311b868</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Canton of Schwyz</v>
+    <v>ff0399f7-2e79-eb3f-0618-78c79708ac42</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Canton of Solothurn</v>
+    <v>768c0474-5479-b9c8-75f8-f82efb8f0dde</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Canton of Ticino</v>
+    <v>b6c6799b-da2f-f3c7-c738-32ae5b148d64</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Thurgau</v>
+    <v>8065557e-7c96-3a5b-def2-3f06cf28b35d</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Canton of Uri</v>
+    <v>bd769763-fa18-cb72-13b9-1fc2356e69e2</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Canton of Valais</v>
+    <v>8f4a9c7f-1eaf-8f68-e219-aa3807fe0383</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Canton of Vaud</v>
+    <v>a705603f-d616-d617-8e28-389ba87a66fc</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Canton of Zug</v>
+    <v>e87417bb-ca41-7e6d-69d0-7a8484553a9d</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Canton of Zürich</v>
+    <v>91f44f19-7d2e-687e-1899-8b1d22d4a46b</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="3">
+    <v>13</v>
+  </rv>
+  <rv s="1">
+    <fb>0.10080933835403399</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>0.28800000000000003</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>4.5809998512268101E-2</fb>
+    <v>36</v>
+  </rv>
+  <rv s="1">
+    <fb>6332428</fb>
+    <v>8</v>
+  </rv>
+  <rv s="10">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>c10c98b9-afcd-84bf-c5c8-4220fc76a2e3</v>
+    <v>536870912</v>
+    <v>1</v>
+    <v>55</v>
+    <v>56</v>
+    <v>Switzerland</v>
+    <v>4</v>
+    <v>5</v>
+    <v>Map</v>
+    <v>6</v>
+    <v>57</v>
+    <v>CH</v>
+    <v>120</v>
+    <v>121</v>
+    <v>122</v>
+    <v>123</v>
+    <v>124</v>
+    <v>108</v>
+    <v>125</v>
+    <v>126</v>
+    <v>127</v>
+    <v>CHF</v>
+    <v>Switzerland, officially the Swiss Confederation, is a landlocked country located in west-central Europe. It is bordered by Italy to the south, France to the west, Germany to the north and Austria and Liechtenstein to the east. Switzerland is ...</v>
+    <v>128</v>
+    <v>129</v>
+    <v>130</v>
+    <v>131</v>
+    <v>132</v>
+    <v>133</v>
+    <v>134</v>
+    <v>135</v>
+    <v>136</v>
+    <v>137</v>
+    <v>138</v>
+    <v>146</v>
+    <v>147</v>
+    <v>148</v>
+    <v>149</v>
+    <v>150</v>
+    <v>Switzerland</v>
+    <v>Swiss Psalm</v>
+    <v>151</v>
+    <v>Confoederatio Helvetica</v>
+    <v>152</v>
+    <v>153</v>
+    <v>154</v>
+    <v>155</v>
+    <v>156</v>
+    <v>157</v>
+    <v>158</v>
+    <v>159</v>
+    <v>160</v>
+    <v>161</v>
+    <v>162</v>
+    <v>188</v>
+    <v>189</v>
+    <v>77</v>
+    <v>190</v>
+    <v>191</v>
+    <v>Switzerland</v>
+    <v>192</v>
+    <v>mdp/vdpid/223</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Berlin</v>
+    <v>42784943-7c23-7672-5527-06f89b965cdf</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="1">
+    <fb>891.12</fb>
+    <v>8</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Germany</v>
+    <v>75c62d8e-1449-4e4d-b188-d9e88f878dd9</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="1">
+    <fb>1794936</fb>
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <fb>1868905</fb>
+    <v>8</v>
+  </rv>
+  <rv s="2">
+    <v>6</v>
+    <v>6</v>
+    <v>58</v>
+    <v>7</v>
+    <v>0</v>
+    <v>Image of Berlin</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Franziska Giffey (Mayor)</v>
+    <v>0f36a115-cd69-74b0-1ad8-5ee6074d7916</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="3">
+    <v>14</v>
+  </rv>
+  <rv s="4">
+    <v>https://www.bing.com/search?q=berlin+germany&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>15</v>
+  </rv>
+  <rv s="1">
+    <fb>1.83</fb>
+    <v>30</v>
+  </rv>
+  <rv s="1">
+    <fb>3755251</fb>
+    <v>8</v>
+  </rv>
+  <rv s="11">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>42784943-7c23-7672-5527-06f89b965cdf</v>
+    <v>536870912</v>
+    <v>1</v>
+    <v>61</v>
+    <v>62</v>
+    <v>Berlin</v>
+    <v>4</v>
+    <v>5</v>
+    <v>Map</v>
+    <v>6</v>
+    <v>46</v>
+    <v>DE-BE</v>
+    <v>195</v>
+    <v>196</v>
+    <v>Berlin is the capital and largest city of Germany by both area and by population. Its more than 3.85 million inhabitants make it the European Union's most populous city, according to population within city limits. Simultaneously, the city is one ...</v>
+    <v>197</v>
+    <v>198</v>
+    <v>199</v>
+    <v>201</v>
+    <v>202</v>
+    <v>Berlin</v>
+    <v>203</v>
+    <v>204</v>
+    <v>205</v>
+    <v>Berlin</v>
+    <v>mdp/vdpid/7017957146650214401</v>
+  </rv>
+  <rv s="1">
+    <fb>0.47678612319670299</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>357587.77</fb>
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <fb>180000</fb>
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <fb>9.5</fb>
+    <v>30</v>
+  </rv>
+  <rv s="1">
+    <fb>49</fb>
+    <v>31</v>
+  </rv>
+  <rv s="1">
+    <fb>727972.84</fb>
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <fb>112.854887342124</fb>
+    <v>32</v>
+  </rv>
+  <rv s="1">
+    <fb>1.4456670146976E-2</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>7035.4829747167596</fb>
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <fb>1.56</fb>
+    <v>30</v>
+  </rv>
+  <rv s="1">
+    <fb>0.326912067781085</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>78.862551056754995</fb>
+    <v>33</v>
+  </rv>
+  <rv s="1">
+    <fb>3845630030823.52</fb>
+    <v>35</v>
+  </rv>
+  <rv s="1">
+    <fb>1.0402236</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>0.70246649999999999</fb>
+    <v>29</v>
+  </rv>
+  <rv s="2">
+    <v>7</v>
+    <v>6</v>
+    <v>64</v>
+    <v>7</v>
+    <v>0</v>
+    <v>Image of Germany</v>
+  </rv>
+  <rv s="1">
+    <fb>3.1</fb>
+    <v>33</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Frank-Walter Steinmeier (President)</v>
+    <v>a6d595f9-116c-57de-2b35-48e9bde9f83d</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Olaf Scholz (Chancellor)</v>
+    <v>d327207b-5560-1fae-17a8-4bc95203ea8e</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="3">
+    <v>16</v>
+  </rv>
+  <rv s="4">
+    <v>https://www.bing.com/search?q=germany&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <fb>80.892682926829295</fb>
+    <v>33</v>
+  </rv>
+  <rv s="1">
+    <fb>2098173930000</fb>
+    <v>35</v>
+  </rv>
+  <rv s="1">
+    <fb>7</fb>
+    <v>33</v>
+  </rv>
+  <rv s="1">
+    <fb>9.99</fb>
+    <v>34</v>
+  </rv>
+  <rv s="1">
+    <fb>0.12528421940000001</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>4.2488000000000001</fb>
+    <v>30</v>
+  </rv>
+  <rv s="1">
+    <fb>84079811</fb>
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <fb>0.22800000000000001</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>0.24600000000000002</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>0.39600000000000002</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>2.8999999999999998E-2</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>7.5999999999999998E-2</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>0.128</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>0.17100000000000001</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>0.60811000823974604</fb>
+    <v>29</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Baden-Württemberg</v>
+    <v>e4767d1d-15fd-a8bd-1fcd-f8214d3c189f</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Bavaria</v>
+    <v>e4f7e69f-e1bc-189a-d23d-b2ecee6a88d5</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Bremen</v>
+    <v>70a6262d-6ded-6a1a-8a3d-e24538d50a05</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Hamburg</v>
+    <v>0937ec8c-54f7-94c7-d7b8-0ea8c6cfce6f</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Mecklenburg-Vorpommern</v>
+    <v>b0adc1b4-6fe2-3ad0-81e1-78c9ba53cedb</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Lower Saxony</v>
+    <v>c91589e2-9db8-e9f2-b60d-1000c3502bc2</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>North Rhine-Westphalia</v>
+    <v>7192ac29-308b-9018-2da7-1d16b5afb233</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Rhineland-Palatinate</v>
+    <v>b2634da1-26f3-4709-d63d-9f9489a33d9c</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Saarland</v>
+    <v>077b3058-0078-d492-aee0-52b8d21ee39e</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Saxony</v>
+    <v>db04ed86-d227-952f-dbae-2881e92d2d0a</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Saxony-Anhalt</v>
+    <v>6af91c75-020d-7d63-0e2d-ab73f9f73280</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Schleswig-Holstein</v>
+    <v>6dde426c-96c7-18bd-f4e1-b41b7575557a</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Brandenburg</v>
+    <v>c841173c-24ae-1249-8be1-c2ff2ec02111</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Hesse</v>
+    <v>90fbe078-3753-40db-ff12-40aa58e76c5f</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="3">
+    <v>17</v>
+  </rv>
+  <rv s="1">
+    <fb>0.11505903952014901</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>0.48799999999999999</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>3.0429999828338602E-2</fb>
+    <v>36</v>
+  </rv>
+  <rv s="1">
+    <fb>64324835</fb>
+    <v>8</v>
+  </rv>
+  <rv s="6">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>75c62d8e-1449-4e4d-b188-d9e88f878dd9</v>
+    <v>536870912</v>
+    <v>1</v>
+    <v>67</v>
+    <v>27</v>
+    <v>Germany</v>
+    <v>4</v>
+    <v>5</v>
+    <v>Map</v>
+    <v>6</v>
+    <v>68</v>
+    <v>DE</v>
+    <v>207</v>
+    <v>208</v>
+    <v>209</v>
+    <v>210</v>
+    <v>211</v>
+    <v>194</v>
+    <v>212</v>
+    <v>213</v>
+    <v>214</v>
+    <v>EUR</v>
+    <v>Germany, officially the Federal Republic of Germany, is a country in the western region of Central Europe. It is the second-most populous country in Europe after Russia, and the most populous member state of the European Union. Germany lies ...</v>
+    <v>215</v>
+    <v>216</v>
+    <v>217</v>
+    <v>218</v>
+    <v>24</v>
+    <v>219</v>
+    <v>220</v>
+    <v>221</v>
+    <v>222</v>
+    <v>223</v>
+    <v>194</v>
+    <v>226</v>
+    <v>227</v>
+    <v>228</v>
+    <v>229</v>
+    <v>230</v>
+    <v>231</v>
+    <v>Germany</v>
+    <v>National Anthem of Germany</v>
+    <v>203</v>
+    <v>Bundesrepublik Deutschland</v>
+    <v>232</v>
+    <v>233</v>
+    <v>234</v>
+    <v>235</v>
+    <v>236</v>
+    <v>237</v>
+    <v>238</v>
+    <v>239</v>
+    <v>240</v>
+    <v>241</v>
+    <v>242</v>
+    <v>257</v>
+    <v>258</v>
+    <v>77</v>
+    <v>259</v>
+    <v>260</v>
+    <v>Germany</v>
+    <v>261</v>
+    <v>mdp/vdpid/94</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Coppet</v>
+    <v>54d2577a-44d9-3dc6-d65d-0f32df7b3d4c</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="1">
+    <fb>1.93</fb>
+    <v>8</v>
+  </rv>
+  <rv s="2">
+    <v>8</v>
+    <v>6</v>
+    <v>69</v>
+    <v>7</v>
+    <v>0</v>
+    <v>Image of Coppet</v>
+  </rv>
+  <rv s="1">
+    <fb>46.321350000000002</fb>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Gérard Produit (Mayor)</v>
+    <v>b418a17d-ce41-1805-c7ef-76dfc35f2179</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="3">
+    <v>18</v>
+  </rv>
+  <rv s="4">
+    <v>https://www.bing.com/search?q=coppet+switzerland&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <fb>6.1890700000000001</fb>
+    <v>9</v>
+  </rv>
+  <rv s="1">
+    <fb>3145</fb>
+    <v>8</v>
+  </rv>
+  <rv s="5">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>54d2577a-44d9-3dc6-d65d-0f32df7b3d4c</v>
+    <v>536870912</v>
+    <v>1</v>
+    <v>70</v>
+    <v>2</v>
+    <v>Coppet</v>
+    <v>4</v>
+    <v>5</v>
+    <v>Map</v>
+    <v>6</v>
+    <v>71</v>
+    <v>185</v>
+    <v>264</v>
+    <v>111</v>
+    <v>Coppet is a municipality in the district of Nyon in the canton of Vaud in Switzerland.</v>
+    <v>265</v>
+    <v>266</v>
+    <v>268</v>
+    <v>269</v>
+    <v>270</v>
+    <v>Coppet</v>
+    <v>271</v>
+    <v>Coppet</v>
+    <v>mdp/vdpid/7015775948616237057</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Rome</v>
+    <v>5ed498af-fa85-2a88-874d-212494ddb06f</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Lazio</v>
+    <v>e5d48b4e-72f5-da43-7854-da4784df7b51</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Metropolitan City of Rome Capital</v>
+    <v>76a6fcae-8c89-adab-ce40-a0d52e665024</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="1">
+    <fb>1287.3599999999999</fb>
+    <v>8</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Italy</v>
+    <v>09e8f885-427b-8850-947d-202e0287b9e8</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="2">
+    <v>9</v>
+    <v>6</v>
+    <v>72</v>
+    <v>7</v>
+    <v>0</v>
+    <v>Image of Rome</v>
+  </rv>
+  <rv s="1">
+    <fb>41.893055555556003</fb>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Roberto Gualtieri (Mayor)</v>
+    <v>451ff490-7a31-bc00-90b3-d0724d4c0c03</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="3">
+    <v>19</v>
+  </rv>
+  <rv s="4">
+    <v>https://www.bing.com/search?q=rome+italy&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <fb>12.482777777778001</fb>
+    <v>9</v>
+  </rv>
+  <rv s="1">
+    <fb>2748109</fb>
+    <v>8</v>
+  </rv>
+  <rv s="12">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>5ed498af-fa85-2a88-874d-212494ddb06f</v>
+    <v>536870912</v>
+    <v>1</v>
+    <v>73</v>
+    <v>74</v>
+    <v>Rome</v>
+    <v>4</v>
+    <v>5</v>
+    <v>Map</v>
+    <v>6</v>
+    <v>75</v>
+    <v>274</v>
+    <v>275</v>
+    <v>276</v>
+    <v>277</v>
+    <v>Rome is the capital city of Italy. It is also the capital of the Lazio region, the centre of the Metropolitan City of Rome Capital, and a special comune named Comune di Roma Capitale. With 2,860,009 residents in 1,285 km², Rome is the country's ...</v>
+    <v>278</v>
+    <v>279</v>
+    <v>281</v>
+    <v>282</v>
+    <v>283</v>
+    <v>Rome</v>
+    <v>284</v>
+    <v>Rome</v>
+    <v>mdp/vdpid/7215943137045250049</v>
+  </rv>
+  <rv s="1">
+    <fb>0.432345141769226</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>302068</fb>
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <fb>347000</fb>
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <fb>7.3</fb>
+    <v>30</v>
+  </rv>
+  <rv s="1">
+    <fb>39</fb>
+    <v>31</v>
+  </rv>
+  <rv s="1">
+    <fb>320411.45899999997</fb>
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <fb>110.623595648239</fb>
+    <v>32</v>
+  </rv>
+  <rv s="1">
+    <fb>6.1124694376529102E-3</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>5002.4066798773601</fb>
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <fb>1.29</fb>
+    <v>30</v>
+  </rv>
+  <rv s="1">
+    <fb>0.31790303272888798</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>79.948454735494707</fb>
+    <v>33</v>
+  </rv>
+  <rv s="1">
+    <fb>1.61</fb>
+    <v>34</v>
+  </rv>
+  <rv s="1">
+    <fb>2001244392041.5701</fb>
+    <v>35</v>
+  </rv>
+  <rv s="1">
+    <fb>1.0187936</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>0.61933000000000005</fb>
+    <v>29</v>
+  </rv>
+  <rv s="2">
+    <v>10</v>
+    <v>6</v>
+    <v>77</v>
+    <v>7</v>
+    <v>0</v>
+    <v>Image of Italy</v>
+  </rv>
+  <rv s="1">
+    <fb>2.6</fb>
+    <v>33</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Sergio Mattarella (President)</v>
+    <v>7b09388e-8b92-1261-db16-7c6882735fe1</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Giorgia Meloni (Prime minister)</v>
+    <v>5c9bb82e-e08f-f5eb-9f29-f20e75e8eb8f</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="3">
+    <v>20</v>
+  </rv>
+  <rv s="4">
+    <v>https://www.bing.com/search?q=italy&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <fb>82.946341463414697</fb>
+    <v>33</v>
+  </rv>
+  <rv s="1">
+    <fb>522087790000</fb>
+    <v>35</v>
+  </rv>
+  <rv s="1">
+    <fb>2</fb>
+    <v>33</v>
+  </rv>
+  <rv s="3">
+    <v>21</v>
+  </rv>
+  <rv s="1">
+    <fb>0.2283268819</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>3.9773999999999998</fb>
+    <v>30</v>
+  </rv>
+  <rv s="1">
+    <fb>58856847</fb>
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <fb>0.23</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>0.26700000000000002</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>0.42100000000000004</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>1.9E-2</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>0.06</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>0.12</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>0.495550003051758</fb>
+    <v>29</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Abruzzo</v>
+    <v>6d07734f-0734-da73-bda9-a2e9e44c1042</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Basilicata</v>
+    <v>c286f639-68f8-3ed2-0119-87142c109b42</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Calabria</v>
+    <v>87d05176-c03a-c209-fa72-dfafed738418</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Campania</v>
+    <v>9933ef2b-24f2-a29d-6e4f-fe6bffe78694</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Emilia-Romagna</v>
+    <v>129d3426-cfe5-9154-2989-f246e1aa5cec</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Friuli Venezia Giulia</v>
+    <v>dfe11af7-836d-40cf-b176-995500a2a2fb</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Liguria</v>
+    <v>bc9d0bc0-7501-9ea0-5ffc-8d29df64f153</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Lombardy</v>
+    <v>4e4d95c0-6e91-acd2-e10c-7165bc365e22</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Marche</v>
+    <v>262ac8bf-0bbd-ba85-aef3-2130493eaa9b</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Molise</v>
+    <v>048932e0-ef04-999e-a84f-326f5eaf1b11</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Piedmont</v>
+    <v>1a1b261b-a6b1-8503-5262-e2f707fe58ce</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Apulia</v>
+    <v>162619f7-7efb-76cc-0544-2da0306bd7c3</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Sardinia</v>
+    <v>2ac543b8-3c5f-c1c2-9c26-7153eb61c3d0</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Sicily</v>
+    <v>610fbc95-e594-a116-6d30-36286446a003</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Tuscany</v>
+    <v>a8854f08-da35-486d-5bd1-760f4eeb3da0</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Trentino-Alto Adige/Südtirol</v>
+    <v>b537e28d-6f0c-d8cf-1384-534def0737dd</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Umbria</v>
+    <v>a75c12d3-c6a9-ea7c-e844-577d1cfe72dd</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Aosta Valley</v>
+    <v>d9b216c7-5de6-eaf4-2383-5f7fc3075fdb</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Veneto</v>
+    <v>6809e680-9adc-134d-ebe9-70b79f5adb5f</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="3">
+    <v>22</v>
+  </rv>
+  <rv s="1">
+    <fb>0.24250464933068097</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>0.59099999999999997</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>9.8870000839233405E-2</fb>
+    <v>36</v>
+  </rv>
+  <rv s="1">
+    <fb>42651966</fb>
+    <v>8</v>
+  </rv>
+  <rv s="13">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>09e8f885-427b-8850-947d-202e0287b9e8</v>
+    <v>536870912</v>
+    <v>1</v>
+    <v>80</v>
+    <v>81</v>
+    <v>Italy</v>
+    <v>4</v>
+    <v>5</v>
+    <v>Map</v>
+    <v>6</v>
+    <v>82</v>
+    <v>IT</v>
+    <v>286</v>
+    <v>287</v>
+    <v>288</v>
+    <v>289</v>
+    <v>290</v>
+    <v>273</v>
+    <v>291</v>
+    <v>292</v>
+    <v>293</v>
+    <v>EUR</v>
+    <v>Italy, officially the Italian Republic, is a country in Southern and Western Europe. Located in the middle of the Mediterranean Sea, it consists of a peninsula delimited by the Alps and surrounded by several islands. Italy shares land borders ...</v>
+    <v>294</v>
+    <v>295</v>
+    <v>296</v>
+    <v>297</v>
+    <v>298</v>
+    <v>299</v>
+    <v>300</v>
+    <v>301</v>
+    <v>302</v>
+    <v>303</v>
+    <v>273</v>
+    <v>306</v>
+    <v>307</v>
+    <v>308</v>
+    <v>309</v>
+    <v>310</v>
+    <v>Italy</v>
+    <v>Il Canto degli Italiani</v>
+    <v>311</v>
+    <v>Repubblica Italiana</v>
+    <v>312</v>
+    <v>313</v>
+    <v>314</v>
+    <v>315</v>
+    <v>316</v>
+    <v>317</v>
+    <v>318</v>
+    <v>319</v>
+    <v>320</v>
+    <v>48</v>
+    <v>321</v>
+    <v>341</v>
+    <v>342</v>
+    <v>343</v>
+    <v>344</v>
+    <v>Italy</v>
+    <v>345</v>
+    <v>mdp/vdpid/118</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Moscow</v>
+    <v>6bb559e5-6af9-adf8-d8bc-7f999aba8a3a</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="1">
+    <fb>2562</fb>
+    <v>8</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Russia</v>
+    <v>ed4fce79-8ad4-352b-205b-e4db36c49bbe</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="2">
+    <v>11</v>
+    <v>6</v>
+    <v>83</v>
+    <v>7</v>
+    <v>0</v>
+    <v>Image of Moscow</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Sergey Sobyanin (Mayor)</v>
+    <v>6b5f6242-dae9-73d7-5afb-baedbd37479a</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="3">
+    <v>23</v>
+  </rv>
+  <rv s="4">
+    <v>https://www.bing.com/search?q=moscow+russia&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>24</v>
+  </rv>
+  <rv s="1">
+    <fb>13010112</fb>
+    <v>8</v>
+  </rv>
+  <rv s="3">
+    <v>25</v>
+  </rv>
+  <rv s="14">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>6bb559e5-6af9-adf8-d8bc-7f999aba8a3a</v>
+    <v>536870912</v>
+    <v>1</v>
+    <v>85</v>
+    <v>86</v>
+    <v>Moscow</v>
+    <v>4</v>
+    <v>5</v>
+    <v>Map</v>
+    <v>6</v>
+    <v>40</v>
+    <v>RU-MOW</v>
+    <v>348</v>
+    <v>349</v>
+    <v>Moscow is the capital and largest city of the Russian Federation. The city stands on the Moskva River in Central Russia, with a population estimated at 13.0 million residents within the city limits, over 18.8 million residents in the urban area, ...</v>
+    <v>350</v>
+    <v>352</v>
+    <v>353</v>
+    <v>Moscow</v>
+    <v>354</v>
+    <v>355</v>
+    <v>356</v>
+    <v>Moscow</v>
+    <v>mdp/vdpid/7053257137799036941</v>
+  </rv>
+  <rv s="1">
+    <fb>0.13294470341402198</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>17075400</fb>
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <fb>1454000</fb>
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <fb>11.5</fb>
+    <v>30</v>
+  </rv>
+  <rv s="1">
+    <fb>7</fb>
+    <v>31</v>
+  </rv>
+  <rv s="1">
+    <fb>1732026.7760000001</fb>
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <fb>180.74643865422601</fb>
+    <v>32</v>
+  </rv>
+  <rv s="1">
+    <fb>4.4703597689969995E-2</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>6602.6575252928196</fb>
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <fb>1.57</fb>
+    <v>30</v>
+  </rv>
+  <rv s="1">
+    <fb>0.49758561923004796</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>92.142875817828696</fb>
+    <v>33</v>
+  </rv>
+  <rv s="1">
+    <fb>0.59</fb>
+    <v>34</v>
+  </rv>
+  <rv s="1">
+    <fb>1699876578871.3501</fb>
+    <v>35</v>
+  </rv>
+  <rv s="1">
+    <fb>1.0258246</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>0.81909310000000002</fb>
+    <v>29</v>
+  </rv>
+  <rv s="2">
+    <v>12</v>
+    <v>6</v>
+    <v>88</v>
+    <v>7</v>
+    <v>0</v>
+    <v>Image of Russia</v>
+  </rv>
+  <rv s="1">
+    <fb>6.1</fb>
+    <v>33</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Vladimir Putin (President)</v>
+    <v>60d41b9e-06ae-967b-bcc5-97ad4a13d29c</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Mikhail Mishustin (Prime minister)</v>
+    <v>8176b935-a6dc-cfbe-2565-cfb891845a4a</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="3">
+    <v>26</v>
+  </rv>
+  <rv s="4">
+    <v>https://www.bing.com/search?q=russia&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <fb>72.657317073170702</fb>
+    <v>33</v>
+  </rv>
+  <rv s="1">
+    <fb>576116340000</fb>
+    <v>35</v>
+  </rv>
+  <rv s="1">
+    <fb>17</fb>
+    <v>33</v>
+  </rv>
+  <rv s="1">
+    <fb>0.53</fb>
+    <v>34</v>
+  </rv>
+  <rv s="1">
+    <fb>0.36436404289999996</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>4.0138999999999996</fb>
+    <v>30</v>
+  </rv>
+  <rv s="1">
+    <fb>143555736</fb>
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <fb>0.214</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>0.29899999999999999</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>0.45100000000000001</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>7.0999999999999994E-2</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>0.11199999999999999</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>0.152</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>0.61800998687744102</fb>
+    <v>29</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Adygea</v>
+    <v>22b5ba45-672e-34b8-e6f1-db4a112d6473</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Altai Republic</v>
+    <v>bc671e26-2d75-8823-293a-5af58859f724</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Bashkortostan</v>
+    <v>fc6eab09-3383-820f-1442-4f6dde32cbf9</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Buryatia</v>
+    <v>559aae54-84df-2df7-b208-d0e2975a541f</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Dagestan</v>
+    <v>7be0631e-08a6-71a2-bd8f-1be3fab541d4</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Ingushetia</v>
+    <v>d71ef53a-a58c-2149-fc5b-7f305c67d703</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Kabardino-Balkaria</v>
+    <v>3c3eefab-1013-5556-2903-4a792d0de818</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Kalmykia</v>
+    <v>aa5d46bb-1a45-ccab-629e-32a57e11433b</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Karachay-Cherkess Republic</v>
+    <v>427be6f6-6a91-8144-0b4b-023b249fb86c</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Komi Republic</v>
+    <v>7ef61531-763c-4148-8cc5-3804e7ea0b0f</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Stavropol Krai</v>
+    <v>cea31d3e-370c-d7b9-8aa9-739d9a55a85a</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Mari El Republic</v>
+    <v>b89c03bf-1661-bc0b-45ea-52497ba4afaf</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Mordovia</v>
+    <v>f239c732-02c7-4a65-ceef-e3e0f395c4ad</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Sakha Republic</v>
+    <v>ea625ee4-93bc-476d-b81d-2daeb4e75cc9</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>North Ossetia–Alania</v>
+    <v>d769211e-6a13-19e2-34f9-58681d88ee0e</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Republic of Tatarstan</v>
+    <v>7e36bead-7c24-03eb-3164-2a047e5b7eb1</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Tuva Republic</v>
+    <v>ab07bfe8-07ff-28f8-5b60-d4cd5e7f48f8</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Udmurt Republic</v>
+    <v>9650b146-7f52-f62d-cc53-c0f71081c647</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Khakassia</v>
+    <v>f1e1928b-1461-ec9b-f1f0-d161dfb0ded0</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Chechen Republic</v>
+    <v>380a5b31-8fbf-1061-698e-34d4218fc514</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Chuvash Republic</v>
+    <v>52dde999-303c-705c-0053-8cd4a44ea3bc</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Altai Krai</v>
+    <v>5e9c8636-bfc7-6ace-eac3-4751db61d1cd</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Krasnodar Krai</v>
+    <v>9a429c3b-d4ba-835f-1b73-b43e11683d61</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Krasnoyarsk Krai</v>
+    <v>1266f13e-65bc-fc05-ccd0-3c7a17af0597</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Primorsky Krai</v>
+    <v>c162694d-0600-3d2a-14ab-bd32888d7c8d</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Khabarovsk Krai</v>
+    <v>02068939-5788-e619-fddd-7743d37b74b3</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Amur Oblast</v>
+    <v>706fd605-8507-bdd1-46b4-ee14136bf6f2</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Astrakhan Oblast</v>
+    <v>06c7a94b-2d3b-41f7-ad05-8d46bb820ade</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Arkhangelsk Oblast</v>
+    <v>a26f0229-f4b7-1b73-1448-9522bf6b8a00</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Belgorod Oblast</v>
+    <v>c8940f0f-9335-1cda-1a75-5dd0ab1960ff</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Bryansk Oblast</v>
+    <v>0ea1957d-9d7f-b8a7-f59b-31b5d6b1bd4a</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Vladimir Oblast</v>
+    <v>2d317c56-15fe-4a06-56e0-02319a666d05</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Volgograd Oblast</v>
+    <v>8b9d97f0-f2de-ac3e-5891-976a9a8b1e60</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Vologda Oblast</v>
+    <v>e52cd8ce-a2fe-316d-8b57-f4e3b77333a5</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Voronezh Oblast</v>
+    <v>9b7449fa-9d99-9753-8580-fc09a3e938a1</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Ivanovo Oblast</v>
+    <v>fdcd3a68-b12f-1397-beb5-b43095d4606b</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Irkutsk Oblast</v>
+    <v>d1d27863-f692-cd79-ec4a-a224cb9b6b50</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Kaliningrad Oblast</v>
+    <v>7898a7d2-2c53-4ac9-fd66-da04a64ed92e</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Kaluga Oblast</v>
+    <v>97df7123-82c1-1ae8-dc29-631fa213b57f</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Kamchatka Krai</v>
+    <v>aa601ace-14aa-0457-d7e0-cc6046c92351</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Kemerovo Oblast</v>
+    <v>1e6a003a-be48-9fa5-55bd-e117a8409e45</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Kirov Oblast</v>
+    <v>d59795b1-20b4-27f8-b756-5227d25439ae</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Kostroma Oblast</v>
+    <v>48255075-9db6-a984-2d1d-fcf0441e427b</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Kurgan Oblast</v>
+    <v>903834e8-fe8c-1307-487f-0fb6d8993461</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Kursk Oblast</v>
+    <v>567e1124-acb2-49af-175b-c71b4a0ba198</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Leningrad Oblast</v>
+    <v>5c4a620f-878c-b7a4-a401-7f5115731d25</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Lipetsk Oblast</v>
+    <v>f35c04f7-4cb7-0802-ca04-755f7af52074</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Magadan Oblast</v>
+    <v>41a617f0-e934-53ad-bb6c-2cac390b18ba</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Moscow Oblast</v>
+    <v>dd63de90-3429-69f1-11c7-7129ec818a44</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Murmansk Oblast</v>
+    <v>07a783e3-274d-ec11-cee4-83081096a87f</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Nizhny Novgorod Oblast</v>
+    <v>691cbf3e-b13a-27a2-730d-d3a89a54588c</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Novgorod Oblast</v>
+    <v>5c6f11f1-917e-4dd9-5f0f-bca854810e3e</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Novosibirsk Oblast</v>
+    <v>e05e3666-c6d4-b98c-cf0b-3f8fbdcca509</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Omsk Oblast</v>
+    <v>ca626861-e115-9a15-2bb4-9047d7b785cd</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Orenburg Oblast</v>
+    <v>e416ef3d-74dd-73c7-82c5-e10e02791bfb</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Oryol Oblast</v>
+    <v>30918ef9-6129-11eb-d922-92a0eda65b46</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Penza Oblast</v>
+    <v>6037735b-86a2-89e3-37b1-b7b82ed427b8</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Perm Krai</v>
+    <v>e3254562-12b4-8af6-5efc-c33e6b4cc2fd</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Pskov Oblast</v>
+    <v>c4c338de-2857-ea26-c274-85903024dee2</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Rostov Oblast</v>
+    <v>05c23ef3-37da-92dc-0d82-db4e339caaa8</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Ryazan Oblast</v>
+    <v>6c69b62c-3503-7ba4-5d89-faeb0fc23ab3</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Samara Oblast</v>
+    <v>13d9bea7-a7c1-1b2c-7fb1-e678ddcd7a71</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Saratov Oblast</v>
+    <v>a391453d-4362-449f-bbe1-00b8176ec2f8</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Sakhalin Oblast</v>
+    <v>a0ca8508-79a7-09d7-1e4f-84e80916d921</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Sverdlovsk Oblast</v>
+    <v>32643100-03ea-0c14-f58e-a7d70c8c1468</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Smolensk Oblast</v>
+    <v>d2bbaf83-1065-8b46-d8df-55a0e9dd6b3a</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Tambov Oblast</v>
+    <v>c8c484f3-ed59-31b5-c134-bc324e7837a7</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Tver Oblast</v>
+    <v>43dbfe25-b444-4ee4-6a06-4a0c84faf831</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Tomsk Oblast</v>
+    <v>4833e982-a51c-b27a-99ba-c7aa39fdbfc5</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Tula Oblast</v>
+    <v>06958213-9024-c72f-be1d-870a43124549</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Tyumen Oblast</v>
+    <v>f7074e1e-5809-6c44-a836-391d78cc63b0</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Ulyanovsk Oblast</v>
+    <v>285ad0e8-dfc5-6c4f-f919-783c565347c2</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Chelyabinsk Oblast</v>
+    <v>e8506c94-c78a-be96-22a5-f42d90ce4d85</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Zabaykalsky Krai</v>
+    <v>4eec5a15-6252-a5ba-a675-32f7c3941986</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Yaroslavl Oblast</v>
+    <v>78a787d0-5bd7-369e-abec-20334f55f284</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Saint Petersburg</v>
+    <v>e3ed1086-8cd2-4813-dfa1-22d6666852c7</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Sevastopol</v>
+    <v>1d4e43aa-65a2-a88a-3324-a9ac6e098708</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Jewish Autonomous Oblast</v>
+    <v>f238d267-34ac-88dc-5e18-ecd8a1d9f1bd</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Nenets Autonomous Okrug</v>
+    <v>0bfd44fb-94fd-9862-0994-343325ef0e56</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Khanty-Mansi Autonomous Okrug</v>
+    <v>c54c2f51-aac8-6ea4-fc82-3027ba8cc45b</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Chukotka Autonomous Okrug</v>
+    <v>32d0b1a4-54c8-f9af-b97c-f05f93680504</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Yamalo-Nenets Autonomous Okrug</v>
+    <v>9ad3fb88-2ff4-83f3-32a9-b85ad7f10c6c</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="3">
+    <v>27</v>
+  </rv>
+  <rv s="1">
+    <fb>0.11384595754929799</fb>
+    <v>29</v>
+  </rv>
+  <rv s="3">
+    <v>28</v>
+  </rv>
+  <rv s="1">
+    <fb>0.46200000000000002</fb>
+    <v>29</v>
+  </rv>
+  <rv s="1">
+    <fb>4.5850000381469698E-2</fb>
+    <v>36</v>
+  </rv>
+  <rv s="1">
+    <fb>107683889</fb>
+    <v>8</v>
+  </rv>
+  <rv s="6">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>ed4fce79-8ad4-352b-205b-e4db36c49bbe</v>
+    <v>536870912</v>
+    <v>1</v>
+    <v>91</v>
+    <v>27</v>
+    <v>Russia</v>
+    <v>4</v>
+    <v>5</v>
+    <v>Map</v>
+    <v>6</v>
+    <v>92</v>
+    <v>RU</v>
+    <v>358</v>
+    <v>359</v>
+    <v>360</v>
+    <v>361</v>
+    <v>362</v>
+    <v>347</v>
+    <v>363</v>
+    <v>364</v>
+    <v>365</v>
+    <v>RUB</v>
+    <v>Russia, or the Russian Federation, is a country spanning Eastern Europe and Northern Asia. It is the largest country in the world by area, extending across eleven time zones. It shares land boundaries with fourteen countries. It is the world's ...</v>
+    <v>366</v>
+    <v>367</v>
+    <v>368</v>
+    <v>369</v>
+    <v>370</v>
+    <v>371</v>
+    <v>372</v>
+    <v>373</v>
+    <v>374</v>
+    <v>375</v>
+    <v>347</v>
+    <v>378</v>
+    <v>379</v>
+    <v>380</v>
+    <v>381</v>
+    <v>382</v>
+    <v>383</v>
+    <v>Russia</v>
+    <v>National anthem of Russia</v>
+    <v>354</v>
+    <v>Российская Федерация</v>
+    <v>384</v>
+    <v>385</v>
+    <v>386</v>
+    <v>387</v>
+    <v>388</v>
+    <v>389</v>
+    <v>238</v>
+    <v>390</v>
+    <v>391</v>
+    <v>392</v>
+    <v>393</v>
+    <v>476</v>
+    <v>477</v>
+    <v>478</v>
+    <v>479</v>
+    <v>480</v>
+    <v>Russia</v>
+    <v>481</v>
+    <v>mdp/vdpid/203</v>
+  </rv>
+  <rv s="1">
+    <fb>1439</fb>
+    <v>8</v>
+  </rv>
+  <rv s="2">
+    <v>13</v>
+    <v>6</v>
+    <v>93</v>
+    <v>7</v>
+    <v>0</v>
+    <v>Image of Saint Petersburg</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Alexander Beglov (Governor)</v>
+    <v>eac47bba-6b01-3d4f-ee51-3093ca2b8df4</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="3">
+    <v>29</v>
+  </rv>
+  <rv s="4">
+    <v>https://www.bing.com/search?q=saint+petersburg+russia&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <fb>5384342</fb>
+    <v>8</v>
+  </rv>
+  <rv s="14">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>e3ed1086-8cd2-4813-dfa1-22d6666852c7</v>
+    <v>536870912</v>
+    <v>1</v>
+    <v>95</v>
+    <v>86</v>
+    <v>Saint Petersburg</v>
+    <v>4</v>
+    <v>5</v>
+    <v>Map</v>
+    <v>6</v>
+    <v>40</v>
+    <v>RU-SPE</v>
+    <v>483</v>
+    <v>349</v>
+    <v>Saint Petersburg, formerly known as Petrograd and later Leningrad, is the second-largest city in Russia after Moscow. It is situated on the River Neva, at the head of the Gulf of Finland on the Baltic Sea. The city had a population of roughly ...</v>
+    <v>484</v>
+    <v>486</v>
+    <v>487</v>
+    <v>Saint Petersburg</v>
+    <v>354</v>
+    <v>488</v>
+    <v>356</v>
+    <v>Saint Petersburg</v>
+    <v>mdp/vdpid/18406</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="15">
+  <s t="_linkedentity2">
+    <k n="%EntityServiceId" t="i"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="_Icon" t="s"/>
+  </s>
+  <s t="_formattednumber">
+    <k n="_Format" t="spb"/>
+  </s>
+  <s t="_webimage">
+    <k n="WebImageIdentifier" t="i"/>
+    <k n="_Provider" t="spb"/>
+    <k n="Attribution" t="spb"/>
+    <k n="CalcOrigin" t="i"/>
+    <k n="ComputedImage" t="b"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentity2core">
+    <k n="_CRID" t="e"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId" t="i"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="_Attribution" t="spb"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_Provider" t="spb"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="Admin Division 1 (State/province/other)" t="r"/>
+    <k n="Area" t="r"/>
+    <k n="Country/region" t="r"/>
+    <k n="Description" t="s"/>
+    <k n="Image" t="r"/>
+    <k n="Latitude" t="r"/>
+    <k n="Leader(s)" t="r"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Longitude" t="r"/>
+    <k n="Name" t="s"/>
+    <k n="Population" t="r"/>
+    <k n="UniqueName" t="s"/>
+    <k n="VDPID/VSID" t="s"/>
+  </s>
+  <s t="_linkedentity2core">
+    <k n="_CRID" t="e"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId" t="i"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="_Attribution" t="spb"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_Provider" t="spb"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="Abbreviation" t="s"/>
+    <k n="Agricultural land (%)" t="r"/>
+    <k n="Area" t="r"/>
+    <k n="Armed forces size" t="r"/>
+    <k n="Birth rate" t="r"/>
+    <k n="Calling code" t="r"/>
+    <k n="Capital/Major City" t="r"/>
+    <k n="Carbon dioxide emissions" t="r"/>
+    <k n="CPI" t="r"/>
+    <k n="CPI Change (%)" t="r"/>
+    <k n="Currency code" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Electric power consumption" t="r"/>
+    <k n="Fertility rate" t="r"/>
+    <k n="Forested area (%)" t="r"/>
+    <k n="Fossil fuel energy consumption" t="r"/>
+    <k n="Gasoline price" t="r"/>
+    <k n="GDP" t="r"/>
+    <k n="Gross primary education enrollment (%)" t="r"/>
+    <k n="Gross tertiary education enrollment (%)" t="r"/>
+    <k n="Image" t="r"/>
+    <k n="Infant mortality" t="r"/>
+    <k n="Largest city" t="r"/>
+    <k n="Leader(s)" t="r"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Life expectancy" t="r"/>
+    <k n="Market cap of listed companies" t="r"/>
+    <k n="Maternal mortality ratio" t="r"/>
+    <k n="Minimum wage" t="r"/>
+    <k n="Name" t="s"/>
+    <k n="National anthem" t="s"/>
+    <k n="Official language" t="r"/>
+    <k n="Official name" t="s"/>
+    <k n="Out of pocket health expenditure (%)" t="r"/>
+    <k n="Physicians per thousand" t="r"/>
+    <k n="Population" t="r"/>
+    <k n="Population: Income share fourth 20%" t="r"/>
+    <k n="Population: Income share highest 10%" t="r"/>
+    <k n="Population: Income share highest 20%" t="r"/>
+    <k n="Population: Income share lowest 10%" t="r"/>
+    <k n="Population: Income share lowest 20%" t="r"/>
+    <k n="Population: Income share second 20%" t="r"/>
+    <k n="Population: Income share third 20%" t="r"/>
+    <k n="Population: Labor force participation (%)" t="r"/>
+    <k n="Subdivisions" t="r"/>
+    <k n="Tax revenue (%)" t="r"/>
+    <k n="Time zone(s)" t="r"/>
+    <k n="Total tax rate" t="r"/>
+    <k n="Unemployment rate" t="r"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Urban population" t="r"/>
+    <k n="VDPID/VSID" t="s"/>
+  </s>
+  <s t="_linkedentity2core">
+    <k n="_CRID" t="e"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId" t="i"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="_Attribution" t="spb"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_Provider" t="spb"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="Admin Division 1 (State/province/other)" t="r"/>
+    <k n="Admin Division 2 (County/district/other)" t="r"/>
+    <k n="Area" t="r"/>
+    <k n="Country/region" t="r"/>
+    <k n="Description" t="s"/>
+    <k n="Image" t="r"/>
+    <k n="Latitude" t="r"/>
+    <k n="Leader(s)" t="r"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Longitude" t="r"/>
+    <k n="Name" t="s"/>
+    <k n="Population" t="r"/>
+    <k n="Time zone(s)" t="r"/>
+    <k n="UniqueName" t="s"/>
+    <k n="VDPID/VSID" t="s"/>
+  </s>
+  <s t="_linkedentity2core">
+    <k n="_CRID" t="e"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId" t="i"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="_Attribution" t="spb"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_Provider" t="spb"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="Abbreviation" t="s"/>
+    <k n="Area" t="r"/>
+    <k n="Capital/Major City" t="r"/>
+    <k n="Country/region" t="r"/>
+    <k n="Description" t="s"/>
+    <k n="Households" t="r"/>
+    <k n="Housing units" t="r"/>
+    <k n="Image" t="r"/>
+    <k n="Largest city" t="r"/>
+    <k n="Leader(s)" t="r"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Name" t="s"/>
+    <k n="Official language" t="r"/>
+    <k n="Persons per household" t="r"/>
+    <k n="Population" t="r"/>
+    <k n="Time zone(s)" t="r"/>
+    <k n="UniqueName" t="s"/>
+    <k n="VDPID/VSID" t="s"/>
+  </s>
+  <s t="_linkedentity2core">
+    <k n="_CRID" t="e"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId" t="i"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="_Attribution" t="spb"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_Provider" t="spb"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="Admin Division 2 (County/district/other)" t="r"/>
+    <k n="Area" t="r"/>
+    <k n="Country/region" t="r"/>
+    <k n="Description" t="s"/>
+    <k n="Image" t="r"/>
+    <k n="Latitude" t="r"/>
+    <k n="Leader(s)" t="r"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Longitude" t="r"/>
+    <k n="Name" t="s"/>
+    <k n="Population" t="r"/>
+    <k n="UniqueName" t="s"/>
+    <k n="VDPID/VSID" t="s"/>
+  </s>
+  <s t="_linkedentity2core">
+    <k n="_CRID" t="e"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId" t="i"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="_Attribution" t="spb"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_Provider" t="spb"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="Abbreviation" t="s"/>
+    <k n="Agricultural land (%)" t="r"/>
+    <k n="Area" t="r"/>
+    <k n="Armed forces size" t="r"/>
+    <k n="Birth rate" t="r"/>
+    <k n="Calling code" t="r"/>
+    <k n="Capital/Major City" t="r"/>
+    <k n="Carbon dioxide emissions" t="r"/>
+    <k n="CPI" t="r"/>
+    <k n="CPI Change (%)" t="r"/>
+    <k n="Currency code" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Electric power consumption" t="r"/>
+    <k n="Fertility rate" t="r"/>
+    <k n="Forested area (%)" t="r"/>
+    <k n="Fossil fuel energy consumption" t="r"/>
+    <k n="Gasoline price" t="r"/>
+    <k n="GDP" t="r"/>
+    <k n="Gross primary education enrollment (%)" t="r"/>
+    <k n="Gross tertiary education enrollment (%)" t="r"/>
+    <k n="Image" t="r"/>
+    <k n="Infant mortality" t="r"/>
+    <k n="Largest city" t="r"/>
+    <k n="Leader(s)" t="r"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Life expectancy" t="r"/>
+    <k n="Market cap of listed companies" t="r"/>
+    <k n="Maternal mortality ratio" t="r"/>
+    <k n="Name" t="s"/>
+    <k n="National anthem" t="s"/>
+    <k n="Official language" t="r"/>
+    <k n="Official name" t="s"/>
+    <k n="Out of pocket health expenditure (%)" t="r"/>
+    <k n="Physicians per thousand" t="r"/>
+    <k n="Population" t="r"/>
+    <k n="Population: Income share fourth 20%" t="r"/>
+    <k n="Population: Income share highest 10%" t="r"/>
+    <k n="Population: Income share highest 20%" t="r"/>
+    <k n="Population: Income share lowest 10%" t="r"/>
+    <k n="Population: Income share lowest 20%" t="r"/>
+    <k n="Population: Income share second 20%" t="r"/>
+    <k n="Population: Income share third 20%" t="r"/>
+    <k n="Population: Labor force participation (%)" t="r"/>
+    <k n="Subdivisions" t="r"/>
+    <k n="Tax revenue (%)" t="r"/>
+    <k n="Time zone(s)" t="r"/>
+    <k n="Total tax rate" t="r"/>
+    <k n="Unemployment rate" t="r"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Urban population" t="r"/>
+    <k n="VDPID/VSID" t="s"/>
+  </s>
+  <s t="_linkedentity2core">
+    <k n="_CRID" t="e"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId" t="i"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="_Attribution" t="spb"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_Provider" t="spb"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="Abbreviation" t="s"/>
+    <k n="Area" t="r"/>
+    <k n="Country/region" t="r"/>
+    <k n="Description" t="s"/>
+    <k n="Households" t="r"/>
+    <k n="Housing units" t="r"/>
+    <k n="Image" t="r"/>
+    <k n="Leader(s)" t="r"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Name" t="s"/>
+    <k n="Official language" t="r"/>
+    <k n="Persons per household" t="r"/>
+    <k n="Population" t="r"/>
+    <k n="UniqueName" t="s"/>
+    <k n="VDPID/VSID" t="s"/>
+  </s>
+  <s t="_linkedentity2core">
+    <k n="_CRID" t="e"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId" t="i"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="_Attribution" t="spb"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_Provider" t="spb"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="Admin Division 1 (State/province/other)" t="r"/>
+    <k n="Admin Division 2 (County/district/other)" t="r"/>
+    <k n="Area" t="r"/>
+    <k n="Country/region" t="r"/>
+    <k n="Description" t="s"/>
+    <k n="Image" t="r"/>
+    <k n="Latitude" t="r"/>
+    <k n="Leader(s)" t="r"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Longitude" t="r"/>
+    <k n="Name" t="s"/>
+    <k n="Population" t="r"/>
+    <k n="UniqueName" t="s"/>
+    <k n="VDPID/VSID" t="s"/>
+  </s>
+  <s t="_linkedentity2core">
+    <k n="_CRID" t="e"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId" t="i"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="_Attribution" t="spb"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_Provider" t="spb"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="Abbreviation" t="s"/>
+    <k n="Agricultural land (%)" t="r"/>
+    <k n="Area" t="r"/>
+    <k n="Armed forces size" t="r"/>
+    <k n="Birth rate" t="r"/>
+    <k n="Calling code" t="r"/>
+    <k n="Capital/Major City" t="r"/>
+    <k n="Carbon dioxide emissions" t="r"/>
+    <k n="CPI" t="r"/>
+    <k n="CPI Change (%)" t="r"/>
+    <k n="Currency code" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Electric power consumption" t="r"/>
+    <k n="Fertility rate" t="r"/>
+    <k n="Forested area (%)" t="r"/>
+    <k n="Fossil fuel energy consumption" t="r"/>
+    <k n="Gasoline price" t="r"/>
+    <k n="GDP" t="r"/>
+    <k n="Gross primary education enrollment (%)" t="r"/>
+    <k n="Gross tertiary education enrollment (%)" t="r"/>
+    <k n="Image" t="r"/>
+    <k n="Infant mortality" t="r"/>
+    <k n="Largest city" t="r"/>
+    <k n="Leader(s)" t="r"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Life expectancy" t="r"/>
+    <k n="Market cap of listed companies" t="r"/>
+    <k n="Maternal mortality ratio" t="r"/>
+    <k n="Name" t="s"/>
+    <k n="National anthem" t="s"/>
+    <k n="Official language" t="r"/>
+    <k n="Official name" t="s"/>
+    <k n="Out of pocket health expenditure (%)" t="r"/>
+    <k n="Physicians per thousand" t="r"/>
+    <k n="Population" t="r"/>
+    <k n="Population: Income share fourth 20%" t="r"/>
+    <k n="Population: Income share highest 10%" t="r"/>
+    <k n="Population: Income share highest 20%" t="r"/>
+    <k n="Population: Income share lowest 10%" t="r"/>
+    <k n="Population: Income share lowest 20%" t="r"/>
+    <k n="Population: Income share second 20%" t="r"/>
+    <k n="Population: Income share third 20%" t="r"/>
+    <k n="Population: Labor force participation (%)" t="r"/>
+    <k n="Subdivisions" t="r"/>
+    <k n="Tax revenue (%)" t="r"/>
+    <k n="Total tax rate" t="r"/>
+    <k n="Unemployment rate" t="r"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Urban population" t="r"/>
+    <k n="VDPID/VSID" t="s"/>
+  </s>
+  <s t="_linkedentity2core">
+    <k n="_CRID" t="e"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId" t="i"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="_Attribution" t="spb"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_Provider" t="spb"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="Abbreviation" t="s"/>
+    <k n="Area" t="r"/>
+    <k n="Country/region" t="r"/>
+    <k n="Description" t="s"/>
+    <k n="Image" t="r"/>
+    <k n="Leader(s)" t="r"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Name" t="s"/>
+    <k n="Official language" t="r"/>
+    <k n="Population" t="r"/>
+    <k n="Time zone(s)" t="r"/>
+    <k n="UniqueName" t="s"/>
+    <k n="VDPID/VSID" t="s"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="10">
+    <a count="25">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Provider</v>
+      <v t="s">_Attribution</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_Format</v>
+      <v t="s">Admin Division 1 (State/province/other)</v>
+      <v t="s">Country/region</v>
+      <v t="s">Leader(s)</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Population</v>
+      <v t="s">Area</v>
+      <v t="s">Latitude</v>
+      <v t="s">Longitude</v>
+      <v t="s">_Flags</v>
+      <v t="s">VDPID/VSID</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">Image</v>
+      <v t="s">Description</v>
+    </a>
+    <a count="64">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Provider</v>
+      <v t="s">_Attribution</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_Format</v>
+      <v t="s">Capital/Major City</v>
+      <v t="s">Leader(s)</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Population</v>
+      <v t="s">Area</v>
+      <v t="s">Abbreviation</v>
+      <v t="s">GDP</v>
+      <v t="s">Currency code</v>
+      <v t="s">Largest city</v>
+      <v t="s">National anthem</v>
+      <v t="s">Official language</v>
+      <v t="s">Official name</v>
+      <v t="s">Subdivisions</v>
+      <v t="s">Life expectancy</v>
+      <v t="s">Birth rate</v>
+      <v t="s">Fertility rate</v>
+      <v t="s">Infant mortality</v>
+      <v t="s">Maternal mortality ratio</v>
+      <v t="s">Urban population</v>
+      <v t="s">Agricultural land (%)</v>
+      <v t="s">Forested area (%)</v>
+      <v t="s">Carbon dioxide emissions</v>
+      <v t="s">Fossil fuel energy consumption</v>
+      <v t="s">Gasoline price</v>
+      <v t="s">Electric power consumption</v>
+      <v t="s">CPI</v>
+      <v t="s">CPI Change (%)</v>
+      <v t="s">Population: Income share highest 10%</v>
+      <v t="s">Population: Income share highest 20%</v>
+      <v t="s">Population: Income share second 20%</v>
+      <v t="s">Population: Income share third 20%</v>
+      <v t="s">Population: Income share fourth 20%</v>
+      <v t="s">Population: Income share lowest 20%</v>
+      <v t="s">Population: Income share lowest 10%</v>
+      <v t="s">Population: Labor force participation (%)</v>
+      <v t="s">Minimum wage</v>
+      <v t="s">Tax revenue (%)</v>
+      <v t="s">Total tax rate</v>
+      <v t="s">Unemployment rate</v>
+      <v t="s">Market cap of listed companies</v>
+      <v t="s">Gross primary education enrollment (%)</v>
+      <v t="s">Gross tertiary education enrollment (%)</v>
+      <v t="s">Out of pocket health expenditure (%)</v>
+      <v t="s">Physicians per thousand</v>
+      <v t="s">Armed forces size</v>
+      <v t="s">Time zone(s)</v>
+      <v t="s">Calling code</v>
+      <v t="s">_Flags</v>
+      <v t="s">VDPID/VSID</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">Image</v>
+      <v t="s">Description</v>
+    </a>
+    <a count="27">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Provider</v>
+      <v t="s">_Attribution</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_Format</v>
+      <v t="s">Admin Division 2 (County/district/other)</v>
+      <v t="s">Admin Division 1 (State/province/other)</v>
+      <v t="s">Country/region</v>
+      <v t="s">Leader(s)</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Population</v>
+      <v t="s">Area</v>
+      <v t="s">Latitude</v>
+      <v t="s">Longitude</v>
+      <v t="s">Time zone(s)</v>
+      <v t="s">_Flags</v>
+      <v t="s">VDPID/VSID</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">Image</v>
+      <v t="s">Description</v>
+    </a>
+    <a count="30">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Provider</v>
+      <v t="s">_Attribution</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_Format</v>
+      <v t="s">Capital/Major City</v>
+      <v t="s">Leader(s)</v>
+      <v t="s">Country/region</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Population</v>
+      <v t="s">Area</v>
+      <v t="s">Abbreviation</v>
+      <v t="s">Largest city</v>
+      <v t="s">Official language</v>
+      <v t="s">Households</v>
+      <v t="s">Housing units</v>
+      <v t="s">Persons per household</v>
+      <v t="s">Time zone(s)</v>
+      <v t="s">_Flags</v>
+      <v t="s">VDPID/VSID</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">Image</v>
+      <v t="s">Description</v>
+    </a>
+    <a count="25">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Provider</v>
+      <v t="s">_Attribution</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_Format</v>
+      <v t="s">Admin Division 2 (County/district/other)</v>
+      <v t="s">Country/region</v>
+      <v t="s">Leader(s)</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Population</v>
+      <v t="s">Area</v>
+      <v t="s">Latitude</v>
+      <v t="s">Longitude</v>
+      <v t="s">_Flags</v>
+      <v t="s">VDPID/VSID</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">Image</v>
+      <v t="s">Description</v>
+    </a>
+    <a count="63">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Provider</v>
+      <v t="s">_Attribution</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_Format</v>
+      <v t="s">Capital/Major City</v>
+      <v t="s">Leader(s)</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Population</v>
+      <v t="s">Area</v>
+      <v t="s">Abbreviation</v>
+      <v t="s">GDP</v>
+      <v t="s">Currency code</v>
+      <v t="s">Largest city</v>
+      <v t="s">National anthem</v>
+      <v t="s">Official language</v>
+      <v t="s">Official name</v>
+      <v t="s">Subdivisions</v>
+      <v t="s">Life expectancy</v>
+      <v t="s">Birth rate</v>
+      <v t="s">Fertility rate</v>
+      <v t="s">Infant mortality</v>
+      <v t="s">Maternal mortality ratio</v>
+      <v t="s">Urban population</v>
+      <v t="s">Agricultural land (%)</v>
+      <v t="s">Forested area (%)</v>
+      <v t="s">Carbon dioxide emissions</v>
+      <v t="s">Fossil fuel energy consumption</v>
+      <v t="s">Gasoline price</v>
+      <v t="s">Electric power consumption</v>
+      <v t="s">CPI</v>
+      <v t="s">CPI Change (%)</v>
+      <v t="s">Population: Income share highest 10%</v>
+      <v t="s">Population: Income share highest 20%</v>
+      <v t="s">Population: Income share second 20%</v>
+      <v t="s">Population: Income share third 20%</v>
+      <v t="s">Population: Income share fourth 20%</v>
+      <v t="s">Population: Income share lowest 20%</v>
+      <v t="s">Population: Income share lowest 10%</v>
+      <v t="s">Population: Labor force participation (%)</v>
+      <v t="s">Tax revenue (%)</v>
+      <v t="s">Total tax rate</v>
+      <v t="s">Unemployment rate</v>
+      <v t="s">Market cap of listed companies</v>
+      <v t="s">Gross primary education enrollment (%)</v>
+      <v t="s">Gross tertiary education enrollment (%)</v>
+      <v t="s">Out of pocket health expenditure (%)</v>
+      <v t="s">Physicians per thousand</v>
+      <v t="s">Armed forces size</v>
+      <v t="s">Time zone(s)</v>
+      <v t="s">Calling code</v>
+      <v t="s">_Flags</v>
+      <v t="s">VDPID/VSID</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">Image</v>
+      <v t="s">Description</v>
+    </a>
+    <a count="27">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Provider</v>
+      <v t="s">_Attribution</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_Format</v>
+      <v t="s">Leader(s)</v>
+      <v t="s">Country/region</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Population</v>
+      <v t="s">Area</v>
+      <v t="s">Abbreviation</v>
+      <v t="s">Official language</v>
+      <v t="s">Households</v>
+      <v t="s">Housing units</v>
+      <v t="s">Persons per household</v>
+      <v t="s">_Flags</v>
+      <v t="s">VDPID/VSID</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">Image</v>
+      <v t="s">Description</v>
+    </a>
+    <a count="26">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Provider</v>
+      <v t="s">_Attribution</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_Format</v>
+      <v t="s">Admin Division 2 (County/district/other)</v>
+      <v t="s">Admin Division 1 (State/province/other)</v>
+      <v t="s">Country/region</v>
+      <v t="s">Leader(s)</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Population</v>
+      <v t="s">Area</v>
+      <v t="s">Latitude</v>
+      <v t="s">Longitude</v>
+      <v t="s">_Flags</v>
+      <v t="s">VDPID/VSID</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">Image</v>
+      <v t="s">Description</v>
+    </a>
+    <a count="62">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Provider</v>
+      <v t="s">_Attribution</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_Format</v>
+      <v t="s">Capital/Major City</v>
+      <v t="s">Leader(s)</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Population</v>
+      <v t="s">Area</v>
+      <v t="s">Abbreviation</v>
+      <v t="s">GDP</v>
+      <v t="s">Currency code</v>
+      <v t="s">Largest city</v>
+      <v t="s">National anthem</v>
+      <v t="s">Official language</v>
+      <v t="s">Official name</v>
+      <v t="s">Subdivisions</v>
+      <v t="s">Life expectancy</v>
+      <v t="s">Birth rate</v>
+      <v t="s">Fertility rate</v>
+      <v t="s">Infant mortality</v>
+      <v t="s">Maternal mortality ratio</v>
+      <v t="s">Urban population</v>
+      <v t="s">Agricultural land (%)</v>
+      <v t="s">Forested area (%)</v>
+      <v t="s">Carbon dioxide emissions</v>
+      <v t="s">Fossil fuel energy consumption</v>
+      <v t="s">Gasoline price</v>
+      <v t="s">Electric power consumption</v>
+      <v t="s">CPI</v>
+      <v t="s">CPI Change (%)</v>
+      <v t="s">Population: Income share highest 10%</v>
+      <v t="s">Population: Income share highest 20%</v>
+      <v t="s">Population: Income share second 20%</v>
+      <v t="s">Population: Income share third 20%</v>
+      <v t="s">Population: Income share fourth 20%</v>
+      <v t="s">Population: Income share lowest 20%</v>
+      <v t="s">Population: Income share lowest 10%</v>
+      <v t="s">Population: Labor force participation (%)</v>
+      <v t="s">Tax revenue (%)</v>
+      <v t="s">Total tax rate</v>
+      <v t="s">Unemployment rate</v>
+      <v t="s">Market cap of listed companies</v>
+      <v t="s">Gross primary education enrollment (%)</v>
+      <v t="s">Gross tertiary education enrollment (%)</v>
+      <v t="s">Out of pocket health expenditure (%)</v>
+      <v t="s">Physicians per thousand</v>
+      <v t="s">Armed forces size</v>
+      <v t="s">Calling code</v>
+      <v t="s">_Flags</v>
+      <v t="s">VDPID/VSID</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">Image</v>
+      <v t="s">Description</v>
+    </a>
+    <a count="25">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Provider</v>
+      <v t="s">_Attribution</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_Format</v>
+      <v t="s">Leader(s)</v>
+      <v t="s">Country/region</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Population</v>
+      <v t="s">Area</v>
+      <v t="s">Abbreviation</v>
+      <v t="s">Official language</v>
+      <v t="s">Time zone(s)</v>
+      <v t="s">_Flags</v>
+      <v t="s">VDPID/VSID</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">Image</v>
+      <v t="s">Description</v>
+    </a>
+  </spbArrays>
+  <spbData count="96">
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC BY-SA 3.0	</v>
+      <v xml:space="preserve">https://en.wikipedia.org/wiki/Paris	</v>
+      <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="3">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="4">
+      <v>3</v>
+      <v>3</v>
+      <v>3</v>
+    </spb>
+    <spb s="5">
+      <v>1</v>
+      <v>2</v>
+    </spb>
+    <spb s="6">
+      <v>https://www.bing.com</v>
+      <v>https://www.bing.com/th?id=Ga%5Cbing_yt.png&amp;w=100&amp;h=40&amp;c=0&amp;pid=0.1</v>
+      <v>Powered by Bing</v>
+    </spb>
+    <spb s="7">
+      <v>square km</v>
+      <v>2020</v>
+    </spb>
+    <spb s="8">
+      <v>3</v>
+    </spb>
+    <spb s="8">
+      <v>4</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">data.worldbank.org	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">http://data.worldbank.org/indicator/FP.CPI.TOTL	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	Cia	travel.state.gov	</v>
+      <v xml:space="preserve">CC-BY-SA			</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/France	https://www.cia.gov/library/publications/the-world-factbook/geos/fr.html?Transportation	https://travel.state.gov/content/travel/en/international-travel/International-Travel-Country-Information-Pages/Monaco.html	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/			</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC BY-SA 3.0	</v>
+      <v xml:space="preserve">https://en.wikipedia.org/wiki/France	</v>
+      <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">data.worldbank.org	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">http://data.worldbank.org/indicator/SP.DYN.CBRT.IN	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC-BY-SA	</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/France	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Cia	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">https://www.cia.gov/library/publications/the-world-factbook/geos/fr.html?Transportation	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">data.worldbank.org	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">http://data.worldbank.org/indicator/SP.DYN.TFRT.IN	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">data.worldbank.org	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">http://data.worldbank.org/indicator/SP.DYN.LE00.IN	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">data.worldbank.org	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">http://data.worldbank.org/indicator/SP.DYN.IMRT.IN	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">data.worldbank.org	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">http://data.worldbank.org/indicator/SP.URB.TOTL	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">data.worldbank.org	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">http://data.worldbank.org/indicator/MS.MIL.TOTL.P1	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">data.worldbank.org	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">http://data.worldbank.org/indicator/SH.MED.PHYS.ZS	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">data.worldbank.org	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">http://data.worldbank.org/indicator/EN.ATM.CO2E.KT	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">data.worldbank.org	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">http://data.worldbank.org/indicator/SH.STA.MMRT	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">data.worldbank.org	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">http://data.worldbank.org/indicator/EG.USE.ELEC.KH.PC	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">data.worldbank.org	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">http://data.worldbank.org/indicator/SL.TLF.CACT.ZS	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="9">
+      <v>10</v>
+      <v>11</v>
+      <v>12</v>
+      <v>12</v>
+      <v>13</v>
+      <v>12</v>
+      <v>12</v>
+      <v>12</v>
+      <v>14</v>
+      <v>12</v>
+      <v>12</v>
+      <v>14</v>
+      <v>12</v>
+      <v>12</v>
+      <v>15</v>
+      <v>16</v>
+      <v>11</v>
+      <v>15</v>
+      <v>17</v>
+      <v>12</v>
+      <v>15</v>
+      <v>18</v>
+      <v>19</v>
+      <v>20</v>
+      <v>15</v>
+      <v>15</v>
+      <v>12</v>
+      <v>15</v>
+      <v>21</v>
+      <v>22</v>
+      <v>23</v>
+      <v>24</v>
+      <v>15</v>
+      <v>11</v>
+      <v>15</v>
+      <v>15</v>
+      <v>15</v>
+      <v>15</v>
+      <v>15</v>
+      <v>15</v>
+      <v>15</v>
+      <v>15</v>
+      <v>15</v>
+      <v>15</v>
+      <v>25</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="10">
+      <v>2019</v>
+      <v>2019</v>
+      <v>square km</v>
+      <v>per thousand (2018)</v>
+      <v>2022</v>
+      <v>2019</v>
+      <v>2018</v>
+      <v>per liter (2016)</v>
+      <v>2019</v>
+      <v>years (2018)</v>
+      <v>2018</v>
+      <v>per thousand (2018)</v>
+      <v>2019</v>
+      <v>2017</v>
+      <v>2016</v>
+      <v>2019</v>
+      <v>2016</v>
+      <v>2018</v>
+      <v>kilotons per year (2014)</v>
+      <v>deaths per 100,000 (2017)</v>
+      <v>kWh (2014)</v>
+      <v>2015</v>
+      <v>2018</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2015</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2019</v>
+    </spb>
+    <spb s="8">
+      <v>5</v>
+    </spb>
+    <spb s="8">
+      <v>6</v>
+    </spb>
+    <spb s="8">
+      <v>7</v>
+    </spb>
+    <spb s="8">
+      <v>8</v>
+    </spb>
+    <spb s="8">
+      <v>9</v>
+    </spb>
+    <spb s="8">
+      <v>10</v>
+    </spb>
+    <spb s="8">
+      <v>11</v>
+    </spb>
+    <spb s="8">
+      <v>12</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC BY-SA 3.0	</v>
+      <v xml:space="preserve">https://en.wikipedia.org/wiki/London	</v>
+      <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
+    </spb>
+    <spb s="11">
+      <v>37</v>
+      <v>37</v>
+      <v>37</v>
+      <v>37</v>
+      <v>37</v>
+      <v>37</v>
+      <v>37</v>
+      <v>37</v>
+      <v>37</v>
+      <v>37</v>
+    </spb>
+    <spb s="2">
+      <v>2</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="7">
+      <v>square km</v>
+      <v>2021</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC BY-SA 3.0	</v>
+      <v xml:space="preserve">https://en.wikipedia.org/wiki/England	</v>
+      <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">ons.gov.uk	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">https://www.ons.gov.uk/file?uri=/peoplepopulationandcommunity/populationandmigration/populationestimates/datasets/populationestimatesforukenglandandwalesscotlandandnorthernireland/mid2012tomid2016/ukmidyearestimates20122016.xls	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC-BY-SA	</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/England	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
+    </spb>
+    <spb s="12">
+      <v>41</v>
+      <v>41</v>
+      <v>42</v>
+      <v>41</v>
+      <v>41</v>
+      <v>41</v>
+      <v>43</v>
+      <v>41</v>
+      <v>42</v>
+      <v>41</v>
+      <v>41</v>
+      <v>42</v>
+    </spb>
+    <spb s="2">
+      <v>3</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="13">
+      <v>square km</v>
+      <v>2011</v>
+      <v>2022</v>
+      <v>2011</v>
+      <v>2011</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC BY-SA 3.0	</v>
+      <v xml:space="preserve">https://en.wikipedia.org/wiki/Bern	</v>
+      <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
+    </spb>
+    <spb s="14">
+      <v>47</v>
+      <v>47</v>
+      <v>47</v>
+      <v>47</v>
+      <v>47</v>
+      <v>47</v>
+      <v>47</v>
+      <v>47</v>
+      <v>47</v>
+    </spb>
+    <spb s="2">
+      <v>4</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="7">
+      <v>square km</v>
+      <v>2022</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	Cia	travel.state.gov	</v>
+      <v xml:space="preserve">CC-BY-SA			</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/Switzerland	https://www.cia.gov/library/publications/the-world-factbook/geos/sz.html?Transportation	https://travel.state.gov/content/travel/en/international-travel/International-Travel-Country-Information-Pages/Switzerland.html.html	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/			</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC BY-SA 3.0	</v>
+      <v xml:space="preserve">https://en.wikipedia.org/wiki/Switzerland	</v>
+      <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC-BY-SA	</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/Switzerland	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Cia	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">https://www.cia.gov/library/publications/the-world-factbook/geos/sz.html?Transportation	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="15">
+      <v>10</v>
+      <v>51</v>
+      <v>52</v>
+      <v>52</v>
+      <v>13</v>
+      <v>52</v>
+      <v>52</v>
+      <v>52</v>
+      <v>53</v>
+      <v>52</v>
+      <v>52</v>
+      <v>52</v>
+      <v>52</v>
+      <v>54</v>
+      <v>16</v>
+      <v>51</v>
+      <v>54</v>
+      <v>17</v>
+      <v>52</v>
+      <v>54</v>
+      <v>18</v>
+      <v>19</v>
+      <v>20</v>
+      <v>54</v>
+      <v>54</v>
+      <v>52</v>
+      <v>54</v>
+      <v>21</v>
+      <v>22</v>
+      <v>23</v>
+      <v>24</v>
+      <v>54</v>
+      <v>51</v>
+      <v>54</v>
+      <v>54</v>
+      <v>54</v>
+      <v>54</v>
+      <v>54</v>
+      <v>54</v>
+      <v>54</v>
+      <v>54</v>
+      <v>54</v>
+      <v>54</v>
+      <v>25</v>
+    </spb>
+    <spb s="2">
+      <v>5</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="10">
+      <v>2019</v>
+      <v>2019</v>
+      <v>square km</v>
+      <v>per thousand (2018)</v>
+      <v>2022</v>
+      <v>2019</v>
+      <v>2018</v>
+      <v>per liter (2016)</v>
+      <v>2019</v>
+      <v>years (2018)</v>
+      <v>2018</v>
+      <v>per thousand (2018)</v>
+      <v>2019</v>
+      <v>2017</v>
+      <v>2016</v>
+      <v>2019</v>
+      <v>2016</v>
+      <v>2017</v>
+      <v>kilotons per year (2016)</v>
+      <v>deaths per 100,000 (2017)</v>
+      <v>kWh (2014)</v>
+      <v>2015</v>
+      <v>2019</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2015</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2019</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC BY-SA 3.0	</v>
+      <v xml:space="preserve">https://en.wikipedia.org/wiki/Berlin	</v>
+      <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">ergebnisse.zensus2011.de	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">https://ergebnisse.zensus2011.de/?locale=en#dynTable:statUnit=WOHNUNG;absRel=ANZAHL;ags=01,02,03,04,05,06,07,08,09,10,11,12,13,14,15,16;agsAxis=X;yAxis=ZAHLWOHNGN_HHG	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC-BY-SA	</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/Berlin	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
+    </spb>
+    <spb s="16">
+      <v>58</v>
+      <v>58</v>
+      <v>59</v>
+      <v>58</v>
+      <v>58</v>
+      <v>58</v>
+      <v>60</v>
+      <v>59</v>
+      <v>58</v>
+      <v>59</v>
+    </spb>
+    <spb s="2">
+      <v>6</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	Cia	travel.state.gov	</v>
+      <v xml:space="preserve">CC-BY-SA			</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/Germany	https://www.cia.gov/library/publications/the-world-factbook/geos/gm.html?Transportation	https://travel.state.gov/content/travel/en/international-travel/International-Travel-Country-Information-Pages/Germany.html	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/			</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC BY-SA 3.0	</v>
+      <v xml:space="preserve">https://en.wikipedia.org/wiki/Germany	</v>
+      <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC-BY-SA	</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/Germany	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Cia	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">https://www.cia.gov/library/publications/the-world-factbook/geos/gm.html?Transportation	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="9">
+      <v>10</v>
+      <v>63</v>
+      <v>64</v>
+      <v>64</v>
+      <v>13</v>
+      <v>64</v>
+      <v>64</v>
+      <v>64</v>
+      <v>65</v>
+      <v>64</v>
+      <v>64</v>
+      <v>65</v>
+      <v>64</v>
+      <v>64</v>
+      <v>66</v>
+      <v>16</v>
+      <v>63</v>
+      <v>66</v>
+      <v>17</v>
+      <v>64</v>
+      <v>66</v>
+      <v>18</v>
+      <v>19</v>
+      <v>20</v>
+      <v>66</v>
+      <v>66</v>
+      <v>64</v>
+      <v>66</v>
+      <v>21</v>
+      <v>22</v>
+      <v>23</v>
+      <v>24</v>
+      <v>66</v>
+      <v>63</v>
+      <v>66</v>
+      <v>66</v>
+      <v>66</v>
+      <v>66</v>
+      <v>66</v>
+      <v>66</v>
+      <v>66</v>
+      <v>66</v>
+      <v>66</v>
+      <v>66</v>
+      <v>25</v>
+    </spb>
+    <spb s="10">
+      <v>2019</v>
+      <v>2019</v>
+      <v>square km</v>
+      <v>per thousand (2018)</v>
+      <v>2022</v>
+      <v>2019</v>
+      <v>2018</v>
+      <v>per liter (2016)</v>
+      <v>2019</v>
+      <v>years (2018)</v>
+      <v>2018</v>
+      <v>per thousand (2018)</v>
+      <v>2019</v>
+      <v>2017</v>
+      <v>2016</v>
+      <v>2019</v>
+      <v>2016</v>
+      <v>2017</v>
+      <v>kilotons per year (2016)</v>
+      <v>deaths per 100,000 (2017)</v>
+      <v>kWh (2014)</v>
+      <v>2015</v>
+      <v>2019</v>
+      <v>2016</v>
+      <v>2016</v>
+      <v>2016</v>
+      <v>2016</v>
+      <v>2016</v>
+      <v>2015</v>
+      <v>2016</v>
+      <v>2016</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2019</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC BY-SA 3.0	</v>
+      <v xml:space="preserve">https://en.wikipedia.org/wiki/Coppet	</v>
+      <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
+    </spb>
+    <spb s="1">
+      <v>69</v>
+      <v>69</v>
+      <v>69</v>
+      <v>69</v>
+      <v>69</v>
+      <v>69</v>
+      <v>69</v>
+      <v>69</v>
+      <v>69</v>
+    </spb>
+    <spb s="7">
+      <v>square km</v>
+      <v>2018</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC BY-SA 3.0	</v>
+      <v xml:space="preserve">https://en.wikipedia.org/wiki/Rome	</v>
+      <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
+    </spb>
+    <spb s="11">
+      <v>72</v>
+      <v>72</v>
+      <v>72</v>
+      <v>72</v>
+      <v>72</v>
+      <v>72</v>
+      <v>72</v>
+      <v>72</v>
+      <v>72</v>
+      <v>72</v>
+    </spb>
+    <spb s="2">
+      <v>7</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="7">
+      <v>square km</v>
+      <v>2023</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	Wikipedia	Cia	travel.state.gov	</v>
+      <v xml:space="preserve">CC-BY-SA	CC-BY-SA			</v>
+      <v xml:space="preserve">http://es.wikipedia.org/wiki/Italia	http://en.wikipedia.org/wiki/Italy	https://www.cia.gov/library/publications/the-world-factbook/geos/it.html?Transportation	https://travel.state.gov/content/travel/en/international-travel/International-Travel-Country-Information-Pages/SanMarino.html	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	http://creativecommons.org/licenses/by-sa/3.0/			</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC BY-SA 3.0	</v>
+      <v xml:space="preserve">https://en.wikipedia.org/wiki/Italy	</v>
+      <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC-BY-SA	</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/Italy	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Cia	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">https://www.cia.gov/library/publications/the-world-factbook/geos/it.html?Transportation	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="15">
+      <v>10</v>
+      <v>76</v>
+      <v>77</v>
+      <v>77</v>
+      <v>13</v>
+      <v>77</v>
+      <v>77</v>
+      <v>77</v>
+      <v>78</v>
+      <v>77</v>
+      <v>77</v>
+      <v>77</v>
+      <v>77</v>
+      <v>79</v>
+      <v>16</v>
+      <v>76</v>
+      <v>79</v>
+      <v>17</v>
+      <v>77</v>
+      <v>79</v>
+      <v>18</v>
+      <v>19</v>
+      <v>20</v>
+      <v>79</v>
+      <v>79</v>
+      <v>77</v>
+      <v>79</v>
+      <v>21</v>
+      <v>22</v>
+      <v>23</v>
+      <v>24</v>
+      <v>79</v>
+      <v>76</v>
+      <v>79</v>
+      <v>79</v>
+      <v>79</v>
+      <v>79</v>
+      <v>79</v>
+      <v>79</v>
+      <v>79</v>
+      <v>79</v>
+      <v>79</v>
+      <v>79</v>
+      <v>25</v>
+    </spb>
+    <spb s="2">
+      <v>8</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="10">
+      <v>2019</v>
+      <v>2019</v>
+      <v>square km</v>
+      <v>per thousand (2018)</v>
+      <v>2022</v>
+      <v>2019</v>
+      <v>2018</v>
+      <v>per liter (2016)</v>
+      <v>2019</v>
+      <v>years (2018)</v>
+      <v>2018</v>
+      <v>per thousand (2018)</v>
+      <v>2019</v>
+      <v>2017</v>
+      <v>2016</v>
+      <v>2019</v>
+      <v>2016</v>
+      <v>2018</v>
+      <v>kilotons per year (2014)</v>
+      <v>deaths per 100,000 (2017)</v>
+      <v>kWh (2014)</v>
+      <v>2015</v>
+      <v>2008</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2015</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2019</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC BY-SA 3.0	</v>
+      <v xml:space="preserve">https://en.wikipedia.org/wiki/Moscow	</v>
+      <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC-BY-SA	</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/Moscow	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
+    </spb>
+    <spb s="17">
+      <v>83</v>
+      <v>83</v>
+      <v>83</v>
+      <v>83</v>
+      <v>83</v>
+      <v>84</v>
+      <v>83</v>
+    </spb>
+    <spb s="2">
+      <v>9</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	Cia	travel.state.gov	</v>
+      <v xml:space="preserve">CC-BY-SA			</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/Russia	https://www.cia.gov/library/publications/the-world-factbook/geos/rs.html?Transportation	https://travel.state.gov/content/travel/en/international-travel/International-Travel-Country-Information-Pages/RussianFederation.html	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/			</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC BY-SA 3.0	</v>
+      <v xml:space="preserve">https://en.wikipedia.org/wiki/Russia	</v>
+      <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC-BY-SA	</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/Russia	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Cia	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">https://www.cia.gov/library/publications/the-world-factbook/geos/rs.html?Transportation	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="9">
+      <v>10</v>
+      <v>87</v>
+      <v>88</v>
+      <v>88</v>
+      <v>13</v>
+      <v>88</v>
+      <v>88</v>
+      <v>88</v>
+      <v>89</v>
+      <v>88</v>
+      <v>88</v>
+      <v>89</v>
+      <v>88</v>
+      <v>88</v>
+      <v>90</v>
+      <v>16</v>
+      <v>87</v>
+      <v>90</v>
+      <v>17</v>
+      <v>88</v>
+      <v>90</v>
+      <v>18</v>
+      <v>19</v>
+      <v>20</v>
+      <v>90</v>
+      <v>90</v>
+      <v>88</v>
+      <v>90</v>
+      <v>21</v>
+      <v>22</v>
+      <v>23</v>
+      <v>24</v>
+      <v>90</v>
+      <v>87</v>
+      <v>90</v>
+      <v>90</v>
+      <v>90</v>
+      <v>90</v>
+      <v>90</v>
+      <v>90</v>
+      <v>90</v>
+      <v>90</v>
+      <v>90</v>
+      <v>90</v>
+      <v>25</v>
+    </spb>
+    <spb s="10">
+      <v>2019</v>
+      <v>2019</v>
+      <v>square km</v>
+      <v>per thousand (2018)</v>
+      <v>2022</v>
+      <v>2019</v>
+      <v>2018</v>
+      <v>per liter (2016)</v>
+      <v>2019</v>
+      <v>years (2018)</v>
+      <v>2018</v>
+      <v>per thousand (2018)</v>
+      <v>2019</v>
+      <v>2017</v>
+      <v>2016</v>
+      <v>2019</v>
+      <v>2016</v>
+      <v>2016</v>
+      <v>kilotons per year (2016)</v>
+      <v>deaths per 100,000 (2017)</v>
+      <v>kWh (2014)</v>
+      <v>2014</v>
+      <v>2018</v>
+      <v>2018</v>
+      <v>2018</v>
+      <v>2018</v>
+      <v>2018</v>
+      <v>2018</v>
+      <v>2015</v>
+      <v>2018</v>
+      <v>2018</v>
+      <v>2017</v>
+      <v>2017</v>
+      <v>2019</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC BY-SA 3.0	</v>
+      <v xml:space="preserve">https://en.wikipedia.org/wiki/Saint_Petersburg	</v>
+      <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC-BY-SA	</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/Saint_Petersburg	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
+    </spb>
+    <spb s="17">
+      <v>93</v>
+      <v>93</v>
+      <v>93</v>
+      <v>93</v>
+      <v>93</v>
+      <v>94</v>
+      <v>93</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="18">
+  <s>
+    <k n="SourceText" t="s"/>
+    <k n="LicenseText" t="s"/>
+    <k n="SourceAddress" t="s"/>
+    <k n="LicenseAddress" t="s"/>
+  </s>
+  <s>
+    <k n="Area" t="spb"/>
+    <k n="Name" t="spb"/>
+    <k n="Latitude" t="spb"/>
+    <k n="Longitude" t="spb"/>
+    <k n="Population" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="Description" t="spb"/>
+    <k n="Country/region" t="spb"/>
+    <k n="Admin Division 1 (State/province/other)" t="spb"/>
+  </s>
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="UniqueName" t="spb"/>
+    <k n="VDPID/VSID" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Name" t="i"/>
+    <k n="Image" t="i"/>
+  </s>
+  <s>
+    <k n="link" t="s"/>
+    <k n="logo" t="s"/>
+    <k n="name" t="s"/>
+  </s>
+  <s>
+    <k n="Area" t="s"/>
+    <k n="Population" t="s"/>
+  </s>
+  <s>
+    <k n="_Self" t="i"/>
+  </s>
+  <s>
+    <k n="CPI" t="spb"/>
+    <k n="GDP" t="spb"/>
+    <k n="Area" t="spb"/>
+    <k n="Name" t="spb"/>
+    <k n="Birth rate" t="spb"/>
+    <k n="Population" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="Description" t="spb"/>
+    <k n="Abbreviation" t="spb"/>
+    <k n="Calling code" t="spb"/>
+    <k n="Largest city" t="spb"/>
+    <k n="Minimum wage" t="spb"/>
+    <k n="Currency code" t="spb"/>
+    <k n="Official name" t="spb"/>
+    <k n="CPI Change (%)" t="spb"/>
+    <k n="Fertility rate" t="spb"/>
+    <k n="Gasoline price" t="spb"/>
+    <k n="Total tax rate" t="spb"/>
+    <k n="Life expectancy" t="spb"/>
+    <k n="National anthem" t="spb"/>
+    <k n="Tax revenue (%)" t="spb"/>
+    <k n="Infant mortality" t="spb"/>
+    <k n="Urban population" t="spb"/>
+    <k n="Armed forces size" t="spb"/>
+    <k n="Forested area (%)" t="spb"/>
+    <k n="Unemployment rate" t="spb"/>
+    <k n="Capital/Major City" t="spb"/>
+    <k n="Agricultural land (%)" t="spb"/>
+    <k n="Physicians per thousand" t="spb"/>
+    <k n="Carbon dioxide emissions" t="spb"/>
+    <k n="Maternal mortality ratio" t="spb"/>
+    <k n="Electric power consumption" t="spb"/>
+    <k n="Fossil fuel energy consumption" t="spb"/>
+    <k n="Market cap of listed companies" t="spb"/>
+    <k n="Population: Income share third 20%" t="spb"/>
+    <k n="Population: Income share fourth 20%" t="spb"/>
+    <k n="Population: Income share lowest 10%" t="spb"/>
+    <k n="Population: Income share lowest 20%" t="spb"/>
+    <k n="Population: Income share second 20%" t="spb"/>
+    <k n="Out of pocket health expenditure (%)" t="spb"/>
+    <k n="Population: Income share highest 10%" t="spb"/>
+    <k n="Population: Income share highest 20%" t="spb"/>
+    <k n="Gross primary education enrollment (%)" t="spb"/>
+    <k n="Gross tertiary education enrollment (%)" t="spb"/>
+    <k n="Population: Labor force participation (%)" t="spb"/>
+  </s>
+  <s>
+    <k n="CPI" t="s"/>
+    <k n="GDP" t="s"/>
+    <k n="Area" t="s"/>
+    <k n="Birth rate" t="s"/>
+    <k n="Population" t="s"/>
+    <k n="CPI Change (%)" t="s"/>
+    <k n="Fertility rate" t="s"/>
+    <k n="Gasoline price" t="s"/>
+    <k n="Total tax rate" t="s"/>
+    <k n="Life expectancy" t="s"/>
+    <k n="Tax revenue (%)" t="s"/>
+    <k n="Infant mortality" t="s"/>
+    <k n="Urban population" t="s"/>
+    <k n="Armed forces size" t="s"/>
+    <k n="Forested area (%)" t="s"/>
+    <k n="Unemployment rate" t="s"/>
+    <k n="Agricultural land (%)" t="s"/>
+    <k n="Physicians per thousand" t="s"/>
+    <k n="Carbon dioxide emissions" t="s"/>
+    <k n="Maternal mortality ratio" t="s"/>
+    <k n="Electric power consumption" t="s"/>
+    <k n="Fossil fuel energy consumption" t="s"/>
+    <k n="Market cap of listed companies" t="s"/>
+    <k n="Population: Income share third 20%" t="s"/>
+    <k n="Population: Income share fourth 20%" t="s"/>
+    <k n="Population: Income share lowest 10%" t="s"/>
+    <k n="Population: Income share lowest 20%" t="s"/>
+    <k n="Population: Income share second 20%" t="s"/>
+    <k n="Out of pocket health expenditure (%)" t="s"/>
+    <k n="Population: Income share highest 10%" t="s"/>
+    <k n="Population: Income share highest 20%" t="s"/>
+    <k n="Gross primary education enrollment (%)" t="s"/>
+    <k n="Gross tertiary education enrollment (%)" t="s"/>
+    <k n="Population: Labor force participation (%)" t="s"/>
+  </s>
+  <s>
+    <k n="Area" t="spb"/>
+    <k n="Name" t="spb"/>
+    <k n="Latitude" t="spb"/>
+    <k n="Longitude" t="spb"/>
+    <k n="Population" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="Description" t="spb"/>
+    <k n="Country/region" t="spb"/>
+    <k n="Admin Division 1 (State/province/other)" t="spb"/>
+    <k n="Admin Division 2 (County/district/other)" t="spb"/>
+  </s>
+  <s>
+    <k n="Area" t="spb"/>
+    <k n="Name" t="spb"/>
+    <k n="Households" t="spb"/>
+    <k n="Population" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="Description" t="spb"/>
+    <k n="Abbreviation" t="spb"/>
+    <k n="Largest city" t="spb"/>
+    <k n="Housing units" t="spb"/>
+    <k n="Country/region" t="spb"/>
+    <k n="Capital/Major City" t="spb"/>
+    <k n="Persons per household" t="spb"/>
+  </s>
+  <s>
+    <k n="Area" t="s"/>
+    <k n="Households" t="s"/>
+    <k n="Population" t="s"/>
+    <k n="Housing units" t="s"/>
+    <k n="Persons per household" t="s"/>
+  </s>
+  <s>
+    <k n="Area" t="spb"/>
+    <k n="Name" t="spb"/>
+    <k n="Latitude" t="spb"/>
+    <k n="Longitude" t="spb"/>
+    <k n="Population" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="Description" t="spb"/>
+    <k n="Country/region" t="spb"/>
+    <k n="Admin Division 2 (County/district/other)" t="spb"/>
+  </s>
+  <s>
+    <k n="CPI" t="spb"/>
+    <k n="GDP" t="spb"/>
+    <k n="Area" t="spb"/>
+    <k n="Name" t="spb"/>
+    <k n="Birth rate" t="spb"/>
+    <k n="Population" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="Description" t="spb"/>
+    <k n="Abbreviation" t="spb"/>
+    <k n="Calling code" t="spb"/>
+    <k n="Largest city" t="spb"/>
+    <k n="Currency code" t="spb"/>
+    <k n="Official name" t="spb"/>
+    <k n="CPI Change (%)" t="spb"/>
+    <k n="Fertility rate" t="spb"/>
+    <k n="Gasoline price" t="spb"/>
+    <k n="Total tax rate" t="spb"/>
+    <k n="Life expectancy" t="spb"/>
+    <k n="National anthem" t="spb"/>
+    <k n="Tax revenue (%)" t="spb"/>
+    <k n="Infant mortality" t="spb"/>
+    <k n="Urban population" t="spb"/>
+    <k n="Armed forces size" t="spb"/>
+    <k n="Forested area (%)" t="spb"/>
+    <k n="Unemployment rate" t="spb"/>
+    <k n="Capital/Major City" t="spb"/>
+    <k n="Agricultural land (%)" t="spb"/>
+    <k n="Physicians per thousand" t="spb"/>
+    <k n="Carbon dioxide emissions" t="spb"/>
+    <k n="Maternal mortality ratio" t="spb"/>
+    <k n="Electric power consumption" t="spb"/>
+    <k n="Fossil fuel energy consumption" t="spb"/>
+    <k n="Market cap of listed companies" t="spb"/>
+    <k n="Population: Income share third 20%" t="spb"/>
+    <k n="Population: Income share fourth 20%" t="spb"/>
+    <k n="Population: Income share lowest 10%" t="spb"/>
+    <k n="Population: Income share lowest 20%" t="spb"/>
+    <k n="Population: Income share second 20%" t="spb"/>
+    <k n="Out of pocket health expenditure (%)" t="spb"/>
+    <k n="Population: Income share highest 10%" t="spb"/>
+    <k n="Population: Income share highest 20%" t="spb"/>
+    <k n="Gross primary education enrollment (%)" t="spb"/>
+    <k n="Gross tertiary education enrollment (%)" t="spb"/>
+    <k n="Population: Labor force participation (%)" t="spb"/>
+  </s>
+  <s>
+    <k n="Area" t="spb"/>
+    <k n="Name" t="spb"/>
+    <k n="Households" t="spb"/>
+    <k n="Population" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="Description" t="spb"/>
+    <k n="Abbreviation" t="spb"/>
+    <k n="Housing units" t="spb"/>
+    <k n="Country/region" t="spb"/>
+    <k n="Persons per household" t="spb"/>
+  </s>
+  <s>
+    <k n="Area" t="spb"/>
+    <k n="Name" t="spb"/>
+    <k n="Population" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="Description" t="spb"/>
+    <k n="Abbreviation" t="spb"/>
+    <k n="Country/region" t="spb"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="6">
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="IsTitleField" t="b"/>
+    <rPr n="IsHeroField" t="b"/>
+    <rPr n="NumberFormat" t="s"/>
+  </richProperties>
+  <richStyles>
+    <rSty>
+      <rpv i="0">1</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="2">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="1">
+      <rpv i="2">0.0000</rpv>
+    </rSty>
+    <rSty dxfid="3">
+      <rpv i="2">0.0%</rpv>
+    </rSty>
+    <rSty dxfid="2">
+      <rpv i="2">0.00</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="2">0</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="2">#,##0.00</rpv>
+    </rSty>
+    <rSty dxfid="1">
+      <rpv i="2">0.0</rpv>
+    </rSty>
+    <rSty dxfid="1">
+      <rpv i="2">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="1">
+      <rpv i="2">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+  </richStyles>
+</richStyleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -654,13 +6519,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="69.5703125" customWidth="1"/>
@@ -669,7 +6534,7 @@
     <col min="5" max="5" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -683,10 +6548,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1766</v>
       </c>
@@ -697,352 +6568,639 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="E2" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F2" cm="1" vm="2">
+        <f t="array" ref="F2">_FV(E2,"Latitude")</f>
+        <v>48.856666666666698</v>
+      </c>
+      <c r="G2" cm="1" vm="2">
+        <f t="array" ref="G2">_FV(E2,"Latitude")</f>
+        <v>48.856666666666698</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1786</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E3" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F3" cm="1" vm="2">
+        <f t="array" ref="F3">_FV(E3,"Latitude")</f>
+        <v>48.856666666666698</v>
+      </c>
+      <c r="G3" cm="1" vm="2">
+        <f t="array" ref="G3">_FV(E3,"Latitude")</f>
+        <v>48.856666666666698</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1788</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="E4" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F4" cm="1" vm="4">
+        <f t="array" ref="F4">_FV(E4,"Latitude")</f>
+        <v>51.507222222221998</v>
+      </c>
+      <c r="G4" cm="1" vm="4">
+        <f t="array" ref="G4">_FV(E4,"Latitude")</f>
+        <v>51.507222222221998</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1788</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E5" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F5" cm="1" vm="2">
+        <f t="array" ref="F5">_FV(E5,"Latitude")</f>
+        <v>48.856666666666698</v>
+      </c>
+      <c r="G5" cm="1" vm="2">
+        <f t="array" ref="G5">_FV(E5,"Latitude")</f>
+        <v>48.856666666666698</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1789</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E6" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F6" cm="1" vm="2">
+        <f t="array" ref="F6">_FV(E6,"Latitude")</f>
+        <v>48.856666666666698</v>
+      </c>
+      <c r="G6" cm="1" vm="2">
+        <f t="array" ref="G6">_FV(E6,"Latitude")</f>
+        <v>48.856666666666698</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1790</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E7" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F7" cm="1" vm="6">
+        <f t="array" ref="F7">_FV(E7,"Latitude")</f>
+        <v>46.947980000000001</v>
+      </c>
+      <c r="G7" cm="1" vm="6">
+        <f t="array" ref="G7">_FV(E7,"Latitude")</f>
+        <v>46.947980000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1792</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E8" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F8" cm="1" vm="6">
+        <f t="array" ref="F8">_FV(E8,"Latitude")</f>
+        <v>46.947980000000001</v>
+      </c>
+      <c r="G8" cm="1" vm="6">
+        <f t="array" ref="G8">_FV(E8,"Latitude")</f>
+        <v>46.947980000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1793</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="E9" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F9" cm="1" vm="4">
+        <f t="array" ref="F9">_FV(E9,"Latitude")</f>
+        <v>51.507222222221998</v>
+      </c>
+      <c r="G9" cm="1" vm="4">
+        <f t="array" ref="G9">_FV(E9,"Latitude")</f>
+        <v>51.507222222221998</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1793</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E10" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F10" cm="1" vm="6">
+        <f t="array" ref="F10">_FV(E10,"Latitude")</f>
+        <v>46.947980000000001</v>
+      </c>
+      <c r="G10" cm="1" vm="6">
+        <f t="array" ref="G10">_FV(E10,"Latitude")</f>
+        <v>46.947980000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1795</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E11" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F11" cm="1" vm="2">
+        <f t="array" ref="F11">_FV(E11,"Latitude")</f>
+        <v>48.856666666666698</v>
+      </c>
+      <c r="G11" cm="1" vm="2">
+        <f t="array" ref="G11">_FV(E11,"Latitude")</f>
+        <v>48.856666666666698</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1797</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E12" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F12" cm="1" vm="2">
+        <f t="array" ref="F12">_FV(E12,"Latitude")</f>
+        <v>48.856666666666698</v>
+      </c>
+      <c r="G12" cm="1" vm="2">
+        <f t="array" ref="G12">_FV(E12,"Latitude")</f>
+        <v>48.856666666666698</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1802</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="E13" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F13" cm="1" vm="2">
+        <f t="array" ref="F13">_FV(E13,"Latitude")</f>
+        <v>48.856666666666698</v>
+      </c>
+      <c r="G13" cm="1" vm="2">
+        <f t="array" ref="G13">_FV(E13,"Latitude")</f>
+        <v>48.856666666666698</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1803</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="E14" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F14">
+        <v>52.311199999999999</v>
+      </c>
+      <c r="G14">
+        <v>13.243600000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1804</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E15" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F15" cm="1" vm="9">
+        <f t="array" ref="F15">_FV(E15,"Latitude")</f>
+        <v>46.321350000000002</v>
+      </c>
+      <c r="G15" cm="1" vm="9">
+        <f t="array" ref="G15">_FV(E15,"Latitude")</f>
+        <v>46.321350000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1805</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="E16" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F16" cm="1" vm="11">
+        <f t="array" ref="F16">_FV(E16,"Latitude")</f>
+        <v>41.893055555556003</v>
+      </c>
+      <c r="G16" cm="1" vm="11">
+        <f t="array" ref="G16">_FV(E16,"Latitude")</f>
+        <v>41.893055555556003</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1807</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="E17" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F17" cm="1" vm="11">
+        <f t="array" ref="F17">_FV(E17,"Latitude")</f>
+        <v>41.893055555556003</v>
+      </c>
+      <c r="G17" cm="1" vm="11">
+        <f t="array" ref="G17">_FV(E17,"Latitude")</f>
+        <v>41.893055555556003</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1810</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="E18" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F18" cm="1" vm="2">
+        <f t="array" ref="F18">_FV(E18,"Latitude")</f>
+        <v>48.856666666666698</v>
+      </c>
+      <c r="G18" cm="1" vm="2">
+        <f t="array" ref="G18">_FV(E18,"Latitude")</f>
+        <v>48.856666666666698</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1811</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="E19" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F19" cm="1" vm="9">
+        <f t="array" ref="F19">_FV(E19,"Latitude")</f>
+        <v>46.321350000000002</v>
+      </c>
+      <c r="G19" cm="1" vm="9">
+        <f t="array" ref="G19">_FV(E19,"Latitude")</f>
+        <v>46.321350000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1812</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="E20" t="e" vm="12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F20">
+        <v>55.452100000000002</v>
+      </c>
+      <c r="G20">
+        <v>37.370399999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1814</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="E21" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F21" cm="1" vm="4">
+        <f t="array" ref="F21">_FV(E21,"Latitude")</f>
+        <v>51.507222222221998</v>
+      </c>
+      <c r="G21" cm="1" vm="4">
+        <f t="array" ref="G21">_FV(E21,"Latitude")</f>
+        <v>51.507222222221998</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1814</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>27</v>
+      </c>
+      <c r="E22" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F22" cm="1" vm="2">
+        <f t="array" ref="F22">_FV(E22,"Latitude")</f>
+        <v>48.856666666666698</v>
+      </c>
+      <c r="G22" cm="1" vm="2">
+        <f t="array" ref="G22">_FV(E22,"Latitude")</f>
+        <v>48.856666666666698</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1815</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E23" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F23" cm="1" vm="9">
+        <f t="array" ref="F23">_FV(E23,"Latitude")</f>
+        <v>46.321350000000002</v>
+      </c>
+      <c r="G23" cm="1" vm="9">
+        <f t="array" ref="G23">_FV(E23,"Latitude")</f>
+        <v>46.321350000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1816</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E24" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F24" cm="1" vm="2">
+        <f t="array" ref="F24">_FV(E24,"Latitude")</f>
+        <v>48.856666666666698</v>
+      </c>
+      <c r="G24" cm="1" vm="2">
+        <f t="array" ref="G24">_FV(E24,"Latitude")</f>
+        <v>48.856666666666698</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1816</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F25" cm="1" vm="2">
+        <f t="array" ref="F25">_FV(E25,"Latitude")</f>
+        <v>48.856666666666698</v>
+      </c>
+      <c r="G25" cm="1" vm="2">
+        <f t="array" ref="G25">_FV(E25,"Latitude")</f>
+        <v>48.856666666666698</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1817</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F26" cm="1" vm="2">
+        <f t="array" ref="F26">_FV(E26,"Latitude")</f>
+        <v>48.856666666666698</v>
+      </c>
+      <c r="G26" cm="1" vm="2">
+        <f t="array" ref="G26">_FV(E26,"Latitude")</f>
+        <v>48.856666666666698</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1817</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E27" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F27" cm="1" vm="2">
+        <f t="array" ref="F27">_FV(E27,"Latitude")</f>
+        <v>48.856666666666698</v>
+      </c>
+      <c r="G27" cm="1" vm="2">
+        <f t="array" ref="G27">_FV(E27,"Latitude")</f>
+        <v>48.856666666666698</v>
       </c>
     </row>
   </sheetData>
